--- a/回归结果/double小麦.xlsx
+++ b/回归结果/double小麦.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="统计性描述" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="各要素回归" sheetId="4" r:id="rId5"/>
     <sheet name="回归结果" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="11" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">回归结果!$A$21:$G$55</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="194">
   <si>
     <t>yield</t>
   </si>
@@ -928,12 +929,135 @@
     <t>单产</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>(2)lnlabor</t>
+  </si>
+  <si>
+    <t>(3)lnfertile</t>
+  </si>
+  <si>
+    <t>(4)lnmachane</t>
+  </si>
+  <si>
+    <t>lnlaborlnfert</t>
+  </si>
+  <si>
+    <t>lnlaborlnmach</t>
+  </si>
+  <si>
+    <t>lnfertlnmach</t>
+  </si>
+  <si>
+    <t>lnmachlnot</t>
+  </si>
+  <si>
+    <t>-0.034***</t>
+  </si>
+  <si>
+    <t>0.266*</t>
+  </si>
+  <si>
+    <t>0.068**</t>
+  </si>
+  <si>
+    <t>0.001**</t>
+  </si>
+  <si>
+    <t>-0.013**</t>
+  </si>
+  <si>
+    <t>0.009 *</t>
+  </si>
+  <si>
+    <t>4.981***</t>
+  </si>
+  <si>
+    <t>-0.028***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.111***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.625***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.206***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.011*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lnyield</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
@@ -941,8 +1065,9 @@
     <numFmt numFmtId="180" formatCode="0.0%"/>
     <numFmt numFmtId="181" formatCode="&quot;(&quot;General&quot;)&quot;"/>
     <numFmt numFmtId="182" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="183" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,6 +1131,40 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1021,7 +1180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1093,13 +1252,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1244,6 +1423,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="12" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1285,6 +1509,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4133,6 +4363,962 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>machane</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$10:$O$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$10:$P$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3968834764909366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5496067584084541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.600859531567592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.603676609530535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5817105012466457</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5467580868046644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5051477644582505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4604424198708865</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4147101545832477</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3691700963515834</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3245408593445287</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2812376385626492</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2394879758959587</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1994018593695241</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1610152263939271</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1243174971181837</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0892692684668752</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0558138128604408</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0238846040193119</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99341025579825548</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.96431775527094765</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93653455988504564</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90998993257037208</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.88461576322664348</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86034704343508517</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.83712210745191051</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.81488271664589795</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.793574040327653</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.77314456942916032</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75354598817281282</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.7347330210452071</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.71666326695303162</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.69929702864267995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68259714280831196</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.66652881445097045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.65105945774699558</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63615854477280454</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.62179746280009962</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.60794938043982649</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.59458912261754537</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5816930541666363</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.56923897170002991</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.55720600334514081</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.54557451588560424</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.53432602883656144</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.52344313497999628</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.51290942689749031</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.50270942905580862</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49282853502318125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.48325294941901381</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.4739696342256664</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.46496625911693867</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.45623115548333615</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4477532738586581</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.43952214447568078</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.43152784070055189</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.42376094511592816</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.41621251804183312</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.40887406830073897</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.40173752604953161</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.39479521751587082</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.38803984149007165</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.38146444743612673</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.37506241509689697</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.36882743547894636</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.36275349311201455</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.35683484948685545</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.35106602758309358</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.34544179740602382</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.33995716245789986</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.3346073470752986</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.32938778456968332</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.32429410611331821</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.31932213031730999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.3144678534527463</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.30972744026977911</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.30509721537299461</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.30057365511466161</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.29615337997039182</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.29183314736445243</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.28760984491445407</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.28348048406741422</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.27944219410128113</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.27549221646791994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.27162789945533827</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.26784669314852061</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.26414614466976855</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.26052389368077844</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.25697766812998213</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.25350528022982383</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.25010462264972105</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.24677366491146174</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.24351044997468327</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.24031309100094819</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.23717976828569154</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.23410872634805241</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.23109827116926382</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.22814676757089572</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.22525263672481832</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.22241435378729466</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.21963044565008386</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.21689948880191826</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.21422010729412905</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.21159097080458905</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.20901079279451917</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.20647832875303412</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.20399237452463079</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.20155176471511591</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.19915537117173715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECFA-4451-A49C-E425E0B292FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="423094096"/>
+        <c:axId val="423093768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="423094096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423093768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="423093768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423094096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4174,6 +5360,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5245,6 +6471,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -5600,6 +7342,155 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>469789</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>145781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2609850"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>469789</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>145781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2800350"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>469789</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>2906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5600700"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6203,51 +8094,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="64" t="s">
         <v>106</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="49">
+      <c r="C2" s="64">
         <v>1</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="49">
+      <c r="G2" s="64">
         <v>2</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="49">
+      <c r="K2" s="64">
         <v>3</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -6273,7 +8164,7 @@
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>21</v>
@@ -7458,23 +9349,23 @@
       <c r="Q23"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="64" t="s">
         <v>108</v>
       </c>
       <c r="B25" s="2"/>
@@ -7497,7 +9388,7 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A26" s="50"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
         <v>21</v>
@@ -8388,23 +10279,23 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="64" t="s">
         <v>108</v>
       </c>
       <c r="B49" s="2"/>
@@ -8461,7 +10352,7 @@
       <c r="AS49" s="2"/>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A50" s="50"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
         <v>21</v>
@@ -11267,23 +13158,23 @@
       </c>
     </row>
     <row r="72" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A72" s="48" t="s">
+      <c r="A72" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="48"/>
-      <c r="L72" s="48"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="63"/>
+      <c r="L72" s="63"/>
     </row>
     <row r="73" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A73" s="49" t="s">
+      <c r="A73" s="64" t="s">
         <v>108</v>
       </c>
       <c r="B73" s="2"/>
@@ -11340,7 +13231,7 @@
       <c r="AS73" s="2"/>
     </row>
     <row r="74" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A74" s="50"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5" t="s">
         <v>21</v>
@@ -14070,23 +15961,23 @@
       </c>
     </row>
     <row r="95" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A95" s="48" t="s">
+      <c r="A95" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="B95" s="48"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48"/>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48"/>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48"/>
-      <c r="L95" s="48"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="63"/>
+      <c r="I95" s="63"/>
+      <c r="J95" s="63"/>
+      <c r="K95" s="63"/>
+      <c r="L95" s="63"/>
     </row>
     <row r="96" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A96" s="49" t="s">
+      <c r="A96" s="64" t="s">
         <v>108</v>
       </c>
       <c r="B96" s="2"/>
@@ -14143,7 +16034,7 @@
       <c r="AS96" s="2"/>
     </row>
     <row r="97" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A97" s="50"/>
+      <c r="A97" s="65"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5" t="s">
         <v>21</v>
@@ -16949,23 +18840,23 @@
       </c>
     </row>
     <row r="118" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A118" s="48" t="s">
+      <c r="A118" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="B118" s="48"/>
-      <c r="C118" s="48"/>
-      <c r="D118" s="48"/>
-      <c r="E118" s="48"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="48"/>
-      <c r="H118" s="48"/>
-      <c r="I118" s="48"/>
-      <c r="J118" s="48"/>
-      <c r="K118" s="48"/>
-      <c r="L118" s="48"/>
+      <c r="B118" s="63"/>
+      <c r="C118" s="63"/>
+      <c r="D118" s="63"/>
+      <c r="E118" s="63"/>
+      <c r="F118" s="63"/>
+      <c r="G118" s="63"/>
+      <c r="H118" s="63"/>
+      <c r="I118" s="63"/>
+      <c r="J118" s="63"/>
+      <c r="K118" s="63"/>
+      <c r="L118" s="63"/>
     </row>
     <row r="119" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A119" s="49" t="s">
+      <c r="A119" s="64" t="s">
         <v>108</v>
       </c>
       <c r="B119" s="2"/>
@@ -17022,7 +18913,7 @@
       <c r="AS119" s="2"/>
     </row>
     <row r="120" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A120" s="50"/>
+      <c r="A120" s="65"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5" t="s">
         <v>21</v>
@@ -25830,32 +27721,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="E2" s="51" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="I2" s="51" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="I2" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -27784,8 +29675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A21:W110"/>
   <sheetViews>
-    <sheetView topLeftCell="C70" workbookViewId="0">
-      <selection activeCell="R67" sqref="R67:W100"/>
+    <sheetView topLeftCell="C73" workbookViewId="0">
+      <selection activeCell="R99" sqref="R99:W99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27796,26 +29687,26 @@
   </cols>
   <sheetData>
     <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.15">
@@ -27840,15 +29731,15 @@
       <c r="G23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="54" t="s">
+      <c r="K23" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
     </row>
     <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
@@ -27873,15 +29764,15 @@
       <c r="G24" s="3">
         <v>7.7743000000000007E-2</v>
       </c>
-      <c r="K24" s="52" t="s">
+      <c r="K24" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
     </row>
     <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
@@ -29300,18 +31191,18 @@
       <c r="Q66" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="R66" s="55" t="s">
+      <c r="R66" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="S66" s="55"/>
-      <c r="T66" s="55" t="s">
+      <c r="S66" s="70"/>
+      <c r="T66" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="U66" s="55"/>
-      <c r="V66" s="55" t="s">
+      <c r="U66" s="70"/>
+      <c r="V66" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="W66" s="55"/>
+      <c r="W66" s="70"/>
     </row>
     <row r="67" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="Q67" s="42" t="s">
@@ -29421,15 +31312,15 @@
       </c>
     </row>
     <row r="71" spans="1:23" ht="15" x14ac:dyDescent="0.15">
-      <c r="A71" s="54" t="s">
+      <c r="A71" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
       <c r="Q71" s="42" t="s">
         <v>51</v>
       </c>
@@ -29456,15 +31347,15 @@
       </c>
     </row>
     <row r="72" spans="1:23" ht="15" x14ac:dyDescent="0.15">
-      <c r="A72" s="52" t="s">
+      <c r="A72" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
       <c r="Q72" s="42" t="s">
         <v>45</v>
       </c>
@@ -30738,18 +32629,18 @@
       <c r="Q96" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="R96" s="56" t="s">
+      <c r="R96" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="S96" s="56"/>
-      <c r="T96" s="56" t="s">
+      <c r="S96" s="71"/>
+      <c r="T96" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="U96" s="56"/>
-      <c r="V96" s="56" t="s">
+      <c r="U96" s="71"/>
+      <c r="V96" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="W96" s="56"/>
+      <c r="W96" s="71"/>
     </row>
     <row r="97" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
@@ -30783,18 +32674,18 @@
       <c r="Q97" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="R97" s="60" t="s">
+      <c r="R97" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="S97" s="60"/>
-      <c r="T97" s="56" t="s">
+      <c r="S97" s="75"/>
+      <c r="T97" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="U97" s="56"/>
-      <c r="V97" s="56" t="s">
+      <c r="U97" s="71"/>
+      <c r="V97" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="W97" s="56"/>
+      <c r="W97" s="71"/>
     </row>
     <row r="98" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
@@ -30829,18 +32720,18 @@
       <c r="Q98" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="R98" s="56" t="s">
+      <c r="R98" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="S98" s="56"/>
-      <c r="T98" s="56" t="s">
+      <c r="S98" s="71"/>
+      <c r="T98" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="U98" s="56"/>
-      <c r="V98" s="56" t="s">
+      <c r="U98" s="71"/>
+      <c r="V98" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="W98" s="56"/>
+      <c r="W98" s="71"/>
     </row>
     <row r="99" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
@@ -30873,14 +32764,14 @@
       <c r="Q99" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="R99" s="57" t="s">
+      <c r="R99" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="S99" s="57"/>
-      <c r="T99" s="57"/>
-      <c r="U99" s="57"/>
-      <c r="V99" s="57"/>
-      <c r="W99" s="57"/>
+      <c r="S99" s="72"/>
+      <c r="T99" s="72"/>
+      <c r="U99" s="72"/>
+      <c r="V99" s="72"/>
+      <c r="W99" s="72"/>
     </row>
     <row r="100" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
@@ -30912,18 +32803,18 @@
       <c r="Q100" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="R100" s="58">
+      <c r="R100" s="73">
         <v>0.41510000000000002</v>
       </c>
-      <c r="S100" s="58"/>
-      <c r="T100" s="59" t="s">
+      <c r="S100" s="73"/>
+      <c r="T100" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="U100" s="59"/>
-      <c r="V100" s="59" t="s">
+      <c r="U100" s="74"/>
+      <c r="V100" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="W100" s="59"/>
+      <c r="W100" s="74"/>
     </row>
     <row r="101" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
@@ -31155,7 +33046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CY238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="CE1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="CA3" sqref="CA3:CX8"/>
     </sheetView>
   </sheetViews>
@@ -31175,18 +33066,18 @@
       <c r="A2" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="61"/>
+      <c r="G2" s="76"/>
       <c r="J2" s="8" t="s">
         <v>64</v>
       </c>
@@ -31503,7 +33394,7 @@
         <v>6.0922870063462087</v>
       </c>
       <c r="BH3">
-        <f t="shared" ref="BH3:BQ5" si="3">LN(AJ3)</f>
+        <f t="shared" ref="BH3:BJ5" si="3">LN(AJ3)</f>
         <v>6.0886268742643237</v>
       </c>
       <c r="BI3">
@@ -31833,7 +33724,7 @@
         <v>0.2</v>
       </c>
       <c r="BW4">
-        <f t="shared" ref="BW3:BW34" si="5">EXP($K$3*LN($BV4)+BV4*$K$4+$O$37)</f>
+        <f t="shared" ref="BW4:BW34" si="5">EXP($K$3*LN($BV4)+BV4*$K$4+$O$37)</f>
         <v>391.59734934164845</v>
       </c>
       <c r="BX4" s="37">
@@ -32163,7 +34054,7 @@
         <v>386.18168265829866</v>
       </c>
       <c r="BX5" s="37">
-        <f t="shared" ref="BX4:BX67" si="7">$K$3+BV5*$K$4</f>
+        <f t="shared" ref="BX5:BX67" si="7">$K$3+BV5*$K$4</f>
         <v>-3.4397449999999996E-2</v>
       </c>
       <c r="BY5" s="26"/>
@@ -32857,7 +34748,7 @@
         <v>5.1608743334233562</v>
       </c>
       <c r="BH8">
-        <f t="shared" ref="BH8:BQ10" si="14">LN(AJ8)</f>
+        <f t="shared" ref="BH8:BJ10" si="14">LN(AJ8)</f>
         <v>5.165993244878579</v>
       </c>
       <c r="BI8">
@@ -38321,18 +40212,18 @@
       <c r="A32" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56" t="s">
+      <c r="C32" s="71"/>
+      <c r="D32" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56" t="s">
+      <c r="E32" s="71"/>
+      <c r="F32" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="G32" s="56"/>
+      <c r="G32" s="71"/>
       <c r="J32" s="3">
         <v>2013</v>
       </c>
@@ -38458,18 +40349,18 @@
       <c r="A33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="56" t="s">
+      <c r="C33" s="75"/>
+      <c r="D33" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56" t="s">
+      <c r="E33" s="71"/>
+      <c r="F33" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="G33" s="56"/>
+      <c r="G33" s="71"/>
       <c r="J33" s="3">
         <v>2014</v>
       </c>
@@ -38595,18 +40486,18 @@
       <c r="A34" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56" t="s">
+      <c r="C34" s="71"/>
+      <c r="D34" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56" t="s">
+      <c r="E34" s="71"/>
+      <c r="F34" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="G34" s="56"/>
+      <c r="G34" s="71"/>
       <c r="J34" s="3">
         <v>2015</v>
       </c>
@@ -38732,12 +40623,12 @@
       <c r="A35" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
       <c r="H35" s="10"/>
       <c r="J35" s="3" t="s">
         <v>83</v>
@@ -38864,8 +40755,8 @@
       <c r="A36" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
@@ -46526,4 +48417,1526 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E7:P119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:M39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="7" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="5:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="M8" s="77"/>
+    </row>
+    <row r="9" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E9" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="51">
+        <v>-0.01</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="54">
+        <v>0.221</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" s="50">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="M9" s="54">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="10" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E10" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="52">
+        <v>-1E-3</v>
+      </c>
+      <c r="G10" s="51">
+        <v>-1E-3</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f>EXP(0.625*LN(O10)-0.206*(LN(O10))^2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E11" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="I11" s="56">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="58">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="M11" s="56">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11:P74" si="0">EXP(0.625*LN(O11)-0.206*(LN(O11))^2)</f>
+        <v>1.3968834764909366</v>
+      </c>
+    </row>
+    <row r="12" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E12" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="52">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G12" s="51">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="H12" s="51"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>1.5496067584084541</v>
+      </c>
+    </row>
+    <row r="13" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E13" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="51">
+        <v>-0.158</v>
+      </c>
+      <c r="H13" s="51"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>1.600859531567592</v>
+      </c>
+    </row>
+    <row r="14" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E14" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="51">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="H14" s="51"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>1.603676609530535</v>
+      </c>
+    </row>
+    <row r="15" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E15" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="52">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G15" s="51">
+        <v>-0.14299999999999999</v>
+      </c>
+      <c r="H15" s="51"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="61"/>
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>1.5817105012466457</v>
+      </c>
+    </row>
+    <row r="16" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E16" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="52">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="G16" s="51">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="H16" s="51"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="61"/>
+      <c r="O16">
+        <v>7</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>1.5467580868046644</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E17" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="52">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="G17" s="51">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="H17" s="51"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
+      <c r="O17">
+        <v>8</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>1.5051477644582505</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E18" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="51">
+        <v>-1E-3</v>
+      </c>
+      <c r="H18" s="51"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="61"/>
+      <c r="O18">
+        <v>9</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>1.4604424198708865</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E19" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="52">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G19" s="51">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="H19" s="51"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="61"/>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>1.4147101545832477</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E20" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G20" s="51">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="H20" s="51"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="61"/>
+      <c r="O20">
+        <v>11</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>1.3691700963515834</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E21" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="52">
+        <v>-2E-3</v>
+      </c>
+      <c r="G21" s="51">
+        <v>-2E-3</v>
+      </c>
+      <c r="H21" s="51"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="61"/>
+      <c r="O21">
+        <v>12</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>1.3245408593445287</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E22" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="52">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="G22" s="51">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="H22" s="51"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61"/>
+      <c r="O22">
+        <v>13</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>1.2812376385626492</v>
+      </c>
+    </row>
+    <row r="23" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E23" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="51">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="H23" s="51"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="61"/>
+      <c r="O23">
+        <v>14</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>1.2394879758959587</v>
+      </c>
+    </row>
+    <row r="24" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E24" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="52">
+        <v>-0.02</v>
+      </c>
+      <c r="G24" s="51">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="H24" s="51"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="61"/>
+      <c r="O24">
+        <v>15</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>1.1994018593695241</v>
+      </c>
+    </row>
+    <row r="25" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E25" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="52">
+        <v>1E-3</v>
+      </c>
+      <c r="G25" s="51">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H25" s="51"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="61"/>
+      <c r="O25">
+        <v>16</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>1.1610152263939271</v>
+      </c>
+    </row>
+    <row r="26" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E26" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="52">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="G26" s="51">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="H26" s="51"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="61"/>
+      <c r="O26">
+        <v>17</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>1.1243174971181837</v>
+      </c>
+    </row>
+    <row r="27" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E27" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="52">
+        <v>0</v>
+      </c>
+      <c r="G27" s="51">
+        <v>0</v>
+      </c>
+      <c r="H27" s="51"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="61"/>
+      <c r="O27">
+        <v>18</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>1.0892692684668752</v>
+      </c>
+    </row>
+    <row r="28" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E28" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="52">
+        <v>0</v>
+      </c>
+      <c r="G28" s="51">
+        <v>-1E-3</v>
+      </c>
+      <c r="H28" s="51"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="61"/>
+      <c r="O28">
+        <v>19</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>1.0558138128604408</v>
+      </c>
+    </row>
+    <row r="29" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E29" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="52">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="G29" s="51">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="H29" s="51"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="61"/>
+      <c r="O29">
+        <v>20</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>1.0238846040193119</v>
+      </c>
+    </row>
+    <row r="30" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E30" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="52">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="G30" s="51">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="H30" s="51"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="61"/>
+      <c r="O30">
+        <v>21</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>0.99341025579825548</v>
+      </c>
+    </row>
+    <row r="31" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E31" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" s="51">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="H31" s="51"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="61"/>
+      <c r="O31">
+        <v>22</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>0.96431775527094765</v>
+      </c>
+    </row>
+    <row r="32" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E32" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="52">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="G32" s="51">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="61"/>
+      <c r="O32">
+        <v>23</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>0.93653455988504564</v>
+      </c>
+    </row>
+    <row r="33" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E33" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="52">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G33" s="51">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="H33" s="51"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="61"/>
+      <c r="O33">
+        <v>24</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>0.90998993257037208</v>
+      </c>
+    </row>
+    <row r="34" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E34" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G34" s="51">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="61"/>
+      <c r="O34">
+        <v>25</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>0.88461576322664348</v>
+      </c>
+    </row>
+    <row r="35" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E35" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G35" s="51">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="H35" s="51"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="61"/>
+      <c r="O35">
+        <v>26</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>0.86034704343508517</v>
+      </c>
+    </row>
+    <row r="36" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E36" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="52">
+        <v>-2E-3</v>
+      </c>
+      <c r="G36" s="51">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="H36" s="51"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="61"/>
+      <c r="O36">
+        <v>27</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>0.83712210745191051</v>
+      </c>
+    </row>
+    <row r="37" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E37" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="52">
+        <v>1E-3</v>
+      </c>
+      <c r="G37" s="51">
+        <v>-1E-3</v>
+      </c>
+      <c r="H37" s="51"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="61"/>
+      <c r="O37">
+        <v>28</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>0.81488271664589795</v>
+      </c>
+    </row>
+    <row r="38" spans="5:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="E38" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="G38" s="51">
+        <v>-0.54600000000000004</v>
+      </c>
+      <c r="H38" s="51"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="61"/>
+      <c r="O38">
+        <v>29</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>0.793574040327653</v>
+      </c>
+    </row>
+    <row r="39" spans="5:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="O39">
+        <v>30</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>0.77314456942916032</v>
+      </c>
+    </row>
+    <row r="40" spans="5:16" x14ac:dyDescent="0.15">
+      <c r="O40">
+        <v>31</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>0.75354598817281282</v>
+      </c>
+    </row>
+    <row r="41" spans="5:16" x14ac:dyDescent="0.15">
+      <c r="O41">
+        <v>32</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>0.7347330210452071</v>
+      </c>
+    </row>
+    <row r="42" spans="5:16" x14ac:dyDescent="0.15">
+      <c r="O42">
+        <v>33</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>0.71666326695303162</v>
+      </c>
+    </row>
+    <row r="43" spans="5:16" x14ac:dyDescent="0.15">
+      <c r="O43">
+        <v>34</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>0.69929702864267995</v>
+      </c>
+    </row>
+    <row r="44" spans="5:16" x14ac:dyDescent="0.15">
+      <c r="O44">
+        <v>35</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>0.68259714280831196</v>
+      </c>
+    </row>
+    <row r="45" spans="5:16" x14ac:dyDescent="0.15">
+      <c r="O45">
+        <v>36</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>0.66652881445097045</v>
+      </c>
+    </row>
+    <row r="46" spans="5:16" x14ac:dyDescent="0.15">
+      <c r="O46">
+        <v>37</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>0.65105945774699558</v>
+      </c>
+    </row>
+    <row r="47" spans="5:16" x14ac:dyDescent="0.15">
+      <c r="O47">
+        <v>38</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>0.63615854477280454</v>
+      </c>
+    </row>
+    <row r="48" spans="5:16" x14ac:dyDescent="0.15">
+      <c r="O48">
+        <v>39</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>0.62179746280009962</v>
+      </c>
+    </row>
+    <row r="49" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O49">
+        <v>40</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>0.60794938043982649</v>
+      </c>
+    </row>
+    <row r="50" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O50">
+        <v>41</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>0.59458912261754537</v>
+      </c>
+    </row>
+    <row r="51" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O51">
+        <v>42</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>0.5816930541666363</v>
+      </c>
+    </row>
+    <row r="52" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O52">
+        <v>43</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>0.56923897170002991</v>
+      </c>
+    </row>
+    <row r="53" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O53">
+        <v>44</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>0.55720600334514081</v>
+      </c>
+    </row>
+    <row r="54" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O54">
+        <v>45</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>0.54557451588560424</v>
+      </c>
+    </row>
+    <row r="55" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O55">
+        <v>46</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>0.53432602883656144</v>
+      </c>
+    </row>
+    <row r="56" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O56">
+        <v>47</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>0.52344313497999628</v>
+      </c>
+    </row>
+    <row r="57" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O57">
+        <v>48</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>0.51290942689749031</v>
+      </c>
+    </row>
+    <row r="58" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O58">
+        <v>49</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>0.50270942905580862</v>
+      </c>
+    </row>
+    <row r="59" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O59">
+        <v>50</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>0.49282853502318125</v>
+      </c>
+    </row>
+    <row r="60" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O60">
+        <v>51</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>0.48325294941901381</v>
+      </c>
+    </row>
+    <row r="61" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O61">
+        <v>52</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>0.4739696342256664</v>
+      </c>
+    </row>
+    <row r="62" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O62">
+        <v>53</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>0.46496625911693867</v>
+      </c>
+    </row>
+    <row r="63" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O63">
+        <v>54</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>0.45623115548333615</v>
+      </c>
+    </row>
+    <row r="64" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O64">
+        <v>55</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>0.4477532738586581</v>
+      </c>
+    </row>
+    <row r="65" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O65">
+        <v>56</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>0.43952214447568078</v>
+      </c>
+    </row>
+    <row r="66" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O66">
+        <v>57</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>0.43152784070055189</v>
+      </c>
+    </row>
+    <row r="67" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O67">
+        <v>58</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="0"/>
+        <v>0.42376094511592816</v>
+      </c>
+    </row>
+    <row r="68" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O68">
+        <v>59</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="0"/>
+        <v>0.41621251804183312</v>
+      </c>
+    </row>
+    <row r="69" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O69">
+        <v>60</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="0"/>
+        <v>0.40887406830073897</v>
+      </c>
+    </row>
+    <row r="70" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O70">
+        <v>61</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="0"/>
+        <v>0.40173752604953161</v>
+      </c>
+    </row>
+    <row r="71" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O71">
+        <v>62</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="0"/>
+        <v>0.39479521751587082</v>
+      </c>
+    </row>
+    <row r="72" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O72">
+        <v>63</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="0"/>
+        <v>0.38803984149007165</v>
+      </c>
+    </row>
+    <row r="73" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O73">
+        <v>64</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="0"/>
+        <v>0.38146444743612673</v>
+      </c>
+    </row>
+    <row r="74" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O74">
+        <v>65</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="0"/>
+        <v>0.37506241509689697</v>
+      </c>
+    </row>
+    <row r="75" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O75">
+        <v>66</v>
+      </c>
+      <c r="P75">
+        <f t="shared" ref="P75:P119" si="1">EXP(0.625*LN(O75)-0.206*(LN(O75))^2)</f>
+        <v>0.36882743547894636</v>
+      </c>
+    </row>
+    <row r="76" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O76">
+        <v>67</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="1"/>
+        <v>0.36275349311201455</v>
+      </c>
+    </row>
+    <row r="77" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O77">
+        <v>68</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="1"/>
+        <v>0.35683484948685545</v>
+      </c>
+    </row>
+    <row r="78" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O78">
+        <v>69</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="1"/>
+        <v>0.35106602758309358</v>
+      </c>
+    </row>
+    <row r="79" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O79">
+        <v>70</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="1"/>
+        <v>0.34544179740602382</v>
+      </c>
+    </row>
+    <row r="80" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O80">
+        <v>71</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="1"/>
+        <v>0.33995716245789986</v>
+      </c>
+    </row>
+    <row r="81" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O81">
+        <v>72</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="1"/>
+        <v>0.3346073470752986</v>
+      </c>
+    </row>
+    <row r="82" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O82">
+        <v>73</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="1"/>
+        <v>0.32938778456968332</v>
+      </c>
+    </row>
+    <row r="83" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O83">
+        <v>74</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="1"/>
+        <v>0.32429410611331821</v>
+      </c>
+    </row>
+    <row r="84" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O84">
+        <v>75</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="1"/>
+        <v>0.31932213031730999</v>
+      </c>
+    </row>
+    <row r="85" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O85">
+        <v>76</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="1"/>
+        <v>0.3144678534527463</v>
+      </c>
+    </row>
+    <row r="86" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O86">
+        <v>77</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="1"/>
+        <v>0.30972744026977911</v>
+      </c>
+    </row>
+    <row r="87" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O87">
+        <v>78</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="1"/>
+        <v>0.30509721537299461</v>
+      </c>
+    </row>
+    <row r="88" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O88">
+        <v>79</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="1"/>
+        <v>0.30057365511466161</v>
+      </c>
+    </row>
+    <row r="89" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O89">
+        <v>80</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="1"/>
+        <v>0.29615337997039182</v>
+      </c>
+    </row>
+    <row r="90" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O90">
+        <v>81</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="1"/>
+        <v>0.29183314736445243</v>
+      </c>
+    </row>
+    <row r="91" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O91">
+        <v>82</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="1"/>
+        <v>0.28760984491445407</v>
+      </c>
+    </row>
+    <row r="92" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O92">
+        <v>83</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="1"/>
+        <v>0.28348048406741422</v>
+      </c>
+    </row>
+    <row r="93" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O93">
+        <v>84</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="1"/>
+        <v>0.27944219410128113</v>
+      </c>
+    </row>
+    <row r="94" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O94">
+        <v>85</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="1"/>
+        <v>0.27549221646791994</v>
+      </c>
+    </row>
+    <row r="95" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O95">
+        <v>86</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="1"/>
+        <v>0.27162789945533827</v>
+      </c>
+    </row>
+    <row r="96" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O96">
+        <v>87</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="1"/>
+        <v>0.26784669314852061</v>
+      </c>
+    </row>
+    <row r="97" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O97">
+        <v>88</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="1"/>
+        <v>0.26414614466976855</v>
+      </c>
+    </row>
+    <row r="98" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O98">
+        <v>89</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="1"/>
+        <v>0.26052389368077844</v>
+      </c>
+    </row>
+    <row r="99" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O99">
+        <v>90</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="1"/>
+        <v>0.25697766812998213</v>
+      </c>
+    </row>
+    <row r="100" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O100">
+        <v>91</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="1"/>
+        <v>0.25350528022982383</v>
+      </c>
+    </row>
+    <row r="101" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O101">
+        <v>92</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="1"/>
+        <v>0.25010462264972105</v>
+      </c>
+    </row>
+    <row r="102" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O102">
+        <v>93</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="1"/>
+        <v>0.24677366491146174</v>
+      </c>
+    </row>
+    <row r="103" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O103">
+        <v>94</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="1"/>
+        <v>0.24351044997468327</v>
+      </c>
+    </row>
+    <row r="104" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O104">
+        <v>95</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="1"/>
+        <v>0.24031309100094819</v>
+      </c>
+    </row>
+    <row r="105" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O105">
+        <v>96</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="1"/>
+        <v>0.23717976828569154</v>
+      </c>
+    </row>
+    <row r="106" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O106">
+        <v>97</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="1"/>
+        <v>0.23410872634805241</v>
+      </c>
+    </row>
+    <row r="107" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O107">
+        <v>98</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="1"/>
+        <v>0.23109827116926382</v>
+      </c>
+    </row>
+    <row r="108" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O108">
+        <v>99</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="1"/>
+        <v>0.22814676757089572</v>
+      </c>
+    </row>
+    <row r="109" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O109">
+        <v>100</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="1"/>
+        <v>0.22525263672481832</v>
+      </c>
+    </row>
+    <row r="110" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O110">
+        <v>101</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="1"/>
+        <v>0.22241435378729466</v>
+      </c>
+    </row>
+    <row r="111" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O111">
+        <v>102</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="1"/>
+        <v>0.21963044565008386</v>
+      </c>
+    </row>
+    <row r="112" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O112">
+        <v>103</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="1"/>
+        <v>0.21689948880191826</v>
+      </c>
+    </row>
+    <row r="113" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O113">
+        <v>104</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="1"/>
+        <v>0.21422010729412905</v>
+      </c>
+    </row>
+    <row r="114" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O114">
+        <v>105</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="1"/>
+        <v>0.21159097080458905</v>
+      </c>
+    </row>
+    <row r="115" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O115">
+        <v>106</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="1"/>
+        <v>0.20901079279451917</v>
+      </c>
+    </row>
+    <row r="116" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O116">
+        <v>107</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="1"/>
+        <v>0.20647832875303412</v>
+      </c>
+    </row>
+    <row r="117" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O117">
+        <v>108</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="1"/>
+        <v>0.20399237452463079</v>
+      </c>
+    </row>
+    <row r="118" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O118">
+        <v>109</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="1"/>
+        <v>0.20155176471511591</v>
+      </c>
+    </row>
+    <row r="119" spans="15:16" x14ac:dyDescent="0.15">
+      <c r="O119">
+        <v>110</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="1"/>
+        <v>0.19915537117173715</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="F39:M39"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/回归结果/double小麦.xlsx
+++ b/回归结果/double小麦.xlsx
@@ -7351,16 +7351,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7381,16 +7381,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>469789</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>145781</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>593614</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12431</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7407,7 +7407,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2609850"/>
+          <a:off x="6296025" y="952500"/>
           <a:ext cx="4584589" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7419,16 +7419,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>469789</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>145781</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>345964</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>136256</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7445,7 +7445,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2800350"/>
+          <a:off x="8105775" y="2219325"/>
           <a:ext cx="4584589" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7457,16 +7457,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>469789</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>2906</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>365014</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>107681</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7483,7 +7483,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5600700"/>
+          <a:off x="9496425" y="5191125"/>
           <a:ext cx="4584589" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8066,8 +8066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY199"/>
   <sheetViews>
-    <sheetView topLeftCell="AE112" workbookViewId="0">
-      <selection activeCell="AV121" sqref="AV121:AY139"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8116,30 +8116,30 @@
         <v>106</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="64">
-        <v>1</v>
+      <c r="C2" s="64" t="s">
+        <v>139</v>
       </c>
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="64">
+      <c r="G2" s="2"/>
+      <c r="H2" s="64">
+        <v>1</v>
+      </c>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="64">
         <v>2</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="64">
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="64">
         <v>3</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="P2" s="64"/>
       <c r="Q2" s="64"/>
-      <c r="R2" s="2"/>
+      <c r="R2" s="64"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -8175,34 +8175,34 @@
       <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8210,9 +8210,9 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4"/>
       <c r="C4">
-        <v>419.72239999999999</v>
+        <v>420.74630000000002</v>
       </c>
       <c r="D4">
         <v>562.5</v>
@@ -8220,37 +8220,37 @@
       <c r="E4">
         <v>182.22219999999999</v>
       </c>
-      <c r="F4"/>
-      <c r="G4">
+      <c r="F4" s="21"/>
+      <c r="G4" s="6"/>
+      <c r="H4">
+        <v>419.72239999999999</v>
+      </c>
+      <c r="I4">
+        <v>562.5</v>
+      </c>
+      <c r="J4">
+        <v>182.22219999999999</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4">
         <v>432.19720000000001</v>
       </c>
-      <c r="H4">
+      <c r="M4">
         <v>560</v>
       </c>
-      <c r="I4">
+      <c r="N4">
         <v>182.5</v>
       </c>
-      <c r="J4"/>
-      <c r="K4">
+      <c r="O4"/>
+      <c r="P4">
         <v>348.85219999999998</v>
       </c>
-      <c r="L4">
+      <c r="Q4">
         <v>400</v>
       </c>
-      <c r="M4">
+      <c r="R4">
         <v>300</v>
       </c>
-      <c r="N4"/>
-      <c r="O4">
-        <v>420.74630000000002</v>
-      </c>
-      <c r="P4">
-        <v>562.5</v>
-      </c>
-      <c r="Q4">
-        <v>182.22219999999999</v>
-      </c>
-      <c r="R4" s="21"/>
       <c r="T4">
         <v>420.74630000000002</v>
       </c>
@@ -8268,47 +8268,47 @@
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5"/>
       <c r="C5">
-        <v>3.64805</v>
+        <v>4.5392450000000002</v>
       </c>
       <c r="D5">
-        <v>9.9</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>0.2</v>
       </c>
-      <c r="F5"/>
-      <c r="G5">
+      <c r="F5" s="21"/>
+      <c r="G5" s="6"/>
+      <c r="H5">
+        <v>3.64805</v>
+      </c>
+      <c r="I5">
+        <v>9.9</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5">
         <v>13.79668</v>
       </c>
-      <c r="H5">
+      <c r="M5">
         <v>47</v>
       </c>
-      <c r="I5">
+      <c r="N5">
         <v>10</v>
       </c>
-      <c r="J5"/>
-      <c r="K5">
+      <c r="O5"/>
+      <c r="P5">
         <v>80.974999999999994</v>
       </c>
-      <c r="L5">
+      <c r="Q5">
         <v>95</v>
       </c>
-      <c r="M5">
+      <c r="R5">
         <v>70</v>
       </c>
-      <c r="N5"/>
-      <c r="O5">
-        <v>4.5392450000000002</v>
-      </c>
-      <c r="P5">
-        <v>95</v>
-      </c>
-      <c r="Q5">
-        <v>0.2</v>
-      </c>
-      <c r="R5" s="21"/>
       <c r="T5">
         <v>4.5392450000000002</v>
       </c>
@@ -8326,9 +8326,9 @@
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6"/>
       <c r="C6">
-        <v>10.6927</v>
+        <v>10.346500000000001</v>
       </c>
       <c r="D6">
         <v>33.333329999999997</v>
@@ -8336,38 +8336,38 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6"/>
-      <c r="G6">
+      <c r="F6" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6">
+        <v>10.6927</v>
+      </c>
+      <c r="I6">
+        <v>33.333329999999997</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6">
         <v>6.6273759999999999</v>
       </c>
-      <c r="H6">
+      <c r="M6">
         <v>33.333329999999997</v>
       </c>
-      <c r="I6">
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="J6"/>
-      <c r="K6">
+      <c r="O6"/>
+      <c r="P6">
         <v>4.7413800000000004</v>
       </c>
-      <c r="L6">
+      <c r="Q6">
         <v>5</v>
       </c>
-      <c r="M6">
+      <c r="R6">
         <v>4.2857139999999996</v>
-      </c>
-      <c r="N6"/>
-      <c r="O6">
-        <v>10.346500000000001</v>
-      </c>
-      <c r="P6">
-        <v>33.333329999999997</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="21" t="s">
-        <v>117</v>
       </c>
       <c r="T6">
         <v>10.346500000000001</v>
@@ -8386,9 +8386,9 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7"/>
       <c r="C7">
-        <v>10.6869</v>
+        <v>10.337730000000001</v>
       </c>
       <c r="D7">
         <v>33.334330000000001</v>
@@ -8396,37 +8396,37 @@
       <c r="E7">
         <v>1E-3</v>
       </c>
-      <c r="F7"/>
-      <c r="G7">
+      <c r="F7" s="21"/>
+      <c r="G7" s="6"/>
+      <c r="H7">
+        <v>10.6869</v>
+      </c>
+      <c r="I7">
+        <v>33.334330000000001</v>
+      </c>
+      <c r="J7">
+        <v>1E-3</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7">
         <v>6.5948659999999997</v>
       </c>
-      <c r="H7">
+      <c r="M7">
         <v>32.908799999999999</v>
       </c>
-      <c r="I7">
+      <c r="N7">
         <v>1.0009999999999999</v>
       </c>
-      <c r="J7"/>
-      <c r="K7">
+      <c r="O7"/>
+      <c r="P7">
         <v>3.0859239999999999</v>
       </c>
-      <c r="L7">
+      <c r="Q7">
         <v>3.5760000000000001</v>
       </c>
-      <c r="M7">
+      <c r="R7">
         <v>2.1438570000000001</v>
       </c>
-      <c r="N7"/>
-      <c r="O7">
-        <v>10.337730000000001</v>
-      </c>
-      <c r="P7">
-        <v>33.334330000000001</v>
-      </c>
-      <c r="Q7">
-        <v>1E-3</v>
-      </c>
-      <c r="R7" s="21"/>
       <c r="T7">
         <v>10.337730000000001</v>
       </c>
@@ -8444,9 +8444,9 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8"/>
       <c r="C8">
-        <v>7.8012999999999997E-3</v>
+        <v>1.0770399999999999E-2</v>
       </c>
       <c r="D8">
         <v>2.8581430000000001</v>
@@ -8454,38 +8454,38 @@
       <c r="E8">
         <v>1E-3</v>
       </c>
-      <c r="F8"/>
-      <c r="G8">
+      <c r="F8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8">
+        <v>7.8012999999999997E-3</v>
+      </c>
+      <c r="I8">
+        <v>2.8581430000000001</v>
+      </c>
+      <c r="J8">
+        <v>1E-3</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8">
         <v>3.4510100000000002E-2</v>
       </c>
-      <c r="H8">
+      <c r="M8">
         <v>2.0009999999999999</v>
       </c>
-      <c r="I8">
+      <c r="N8">
         <v>1E-3</v>
       </c>
-      <c r="J8"/>
-      <c r="K8">
+      <c r="O8"/>
+      <c r="P8">
         <v>1.657456</v>
       </c>
-      <c r="L8">
+      <c r="Q8">
         <v>2.1438570000000001</v>
       </c>
-      <c r="M8">
+      <c r="R8">
         <v>1.4259999999999999</v>
-      </c>
-      <c r="N8"/>
-      <c r="O8">
-        <v>1.0770399999999999E-2</v>
-      </c>
-      <c r="P8">
-        <v>2.8581430000000001</v>
-      </c>
-      <c r="Q8">
-        <v>1E-3</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>118</v>
       </c>
       <c r="T8">
         <v>1.0770399999999999E-2</v>
@@ -8504,9 +8504,9 @@
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9"/>
       <c r="C9">
-        <v>175.28030000000001</v>
+        <v>175.05969999999999</v>
       </c>
       <c r="D9">
         <v>345.00099999999998</v>
@@ -8514,37 +8514,37 @@
       <c r="E9">
         <v>62.500999999999998</v>
       </c>
-      <c r="F9"/>
-      <c r="G9">
+      <c r="F9" s="21"/>
+      <c r="G9" s="6"/>
+      <c r="H9">
+        <v>175.28030000000001</v>
+      </c>
+      <c r="I9">
+        <v>345.00099999999998</v>
+      </c>
+      <c r="J9">
+        <v>62.500999999999998</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9">
         <v>172.8048</v>
       </c>
-      <c r="H9">
+      <c r="M9">
         <v>345.00099999999998</v>
       </c>
-      <c r="I9">
+      <c r="N9">
         <v>65.001000000000005</v>
       </c>
-      <c r="J9"/>
-      <c r="K9">
+      <c r="O9"/>
+      <c r="P9">
         <v>149.04650000000001</v>
       </c>
-      <c r="L9">
+      <c r="Q9">
         <v>157.1439</v>
       </c>
-      <c r="M9">
+      <c r="R9">
         <v>134.3168</v>
       </c>
-      <c r="N9"/>
-      <c r="O9">
-        <v>175.05969999999999</v>
-      </c>
-      <c r="P9">
-        <v>345.00099999999998</v>
-      </c>
-      <c r="Q9">
-        <v>62.500999999999998</v>
-      </c>
-      <c r="R9" s="21"/>
       <c r="T9">
         <v>175.05969999999999</v>
       </c>
@@ -8562,9 +8562,9 @@
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10"/>
       <c r="C10">
-        <v>129.15190000000001</v>
+        <v>129.52690000000001</v>
       </c>
       <c r="D10">
         <v>306.25099999999998</v>
@@ -8572,37 +8572,37 @@
       <c r="E10">
         <v>1E-3</v>
       </c>
-      <c r="F10"/>
-      <c r="G10">
+      <c r="F10" s="21"/>
+      <c r="G10" s="6"/>
+      <c r="H10">
+        <v>129.15190000000001</v>
+      </c>
+      <c r="I10">
+        <v>306.25099999999998</v>
+      </c>
+      <c r="J10">
+        <v>1E-3</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10">
         <v>133.51609999999999</v>
       </c>
-      <c r="H10">
+      <c r="M10">
         <v>258.51949999999999</v>
       </c>
-      <c r="I10">
+      <c r="N10">
         <v>1E-3</v>
       </c>
-      <c r="J10"/>
-      <c r="K10">
+      <c r="O10"/>
+      <c r="P10">
         <v>143.33539999999999</v>
       </c>
-      <c r="L10">
+      <c r="Q10">
         <v>217.2867</v>
       </c>
-      <c r="M10">
+      <c r="R10">
         <v>105.1974</v>
       </c>
-      <c r="N10"/>
-      <c r="O10">
-        <v>129.52690000000001</v>
-      </c>
-      <c r="P10">
-        <v>306.25099999999998</v>
-      </c>
-      <c r="Q10">
-        <v>1E-3</v>
-      </c>
-      <c r="R10" s="21"/>
       <c r="T10">
         <v>129.52690000000001</v>
       </c>
@@ -8620,9 +8620,9 @@
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11"/>
       <c r="C11">
-        <v>116.5575</v>
+        <v>116.69280000000001</v>
       </c>
       <c r="D11">
         <v>200.001</v>
@@ -8630,37 +8630,37 @@
       <c r="E11">
         <v>50.000999999999998</v>
       </c>
-      <c r="F11"/>
-      <c r="G11">
+      <c r="F11" s="21"/>
+      <c r="G11" s="6"/>
+      <c r="H11">
+        <v>116.5575</v>
+      </c>
+      <c r="I11">
+        <v>200.001</v>
+      </c>
+      <c r="J11">
+        <v>50.000999999999998</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11">
         <v>117.9817</v>
       </c>
-      <c r="H11">
+      <c r="M11">
         <v>200.001</v>
       </c>
-      <c r="I11">
+      <c r="N11">
         <v>50.000999999999998</v>
       </c>
-      <c r="J11"/>
-      <c r="K11">
+      <c r="O11"/>
+      <c r="P11">
         <v>151.2115</v>
       </c>
-      <c r="L11">
+      <c r="Q11">
         <v>174.2867</v>
       </c>
-      <c r="M11">
+      <c r="R11">
         <v>133.58000000000001</v>
       </c>
-      <c r="N11"/>
-      <c r="O11">
-        <v>116.69280000000001</v>
-      </c>
-      <c r="P11">
-        <v>200.001</v>
-      </c>
-      <c r="Q11">
-        <v>50.000999999999998</v>
-      </c>
-      <c r="R11" s="21"/>
       <c r="T11">
         <v>116.69280000000001</v>
       </c>
@@ -8678,9 +8678,9 @@
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12"/>
       <c r="C12">
-        <v>120.7651</v>
+        <v>118.9255</v>
       </c>
       <c r="D12">
         <v>524.54639999999995</v>
@@ -8688,38 +8688,38 @@
       <c r="E12">
         <v>1E-3</v>
       </c>
-      <c r="F12"/>
-      <c r="G12">
+      <c r="F12" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12">
+        <v>120.7651</v>
+      </c>
+      <c r="I12">
+        <v>524.54639999999995</v>
+      </c>
+      <c r="J12">
+        <v>1E-3</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12">
         <v>99.541420000000002</v>
       </c>
-      <c r="H12">
+      <c r="M12">
         <v>524.54639999999995</v>
       </c>
-      <c r="I12">
+      <c r="N12">
         <v>1E-3</v>
       </c>
-      <c r="J12"/>
-      <c r="K12">
+      <c r="O12"/>
+      <c r="P12">
         <v>14.94516</v>
       </c>
-      <c r="L12">
+      <c r="Q12">
         <v>16.884250000000002</v>
       </c>
-      <c r="M12">
+      <c r="R12">
         <v>12.71166</v>
-      </c>
-      <c r="N12"/>
-      <c r="O12">
-        <v>118.9255</v>
-      </c>
-      <c r="P12">
-        <v>524.54639999999995</v>
-      </c>
-      <c r="Q12">
-        <v>1E-3</v>
-      </c>
-      <c r="R12" s="21" t="s">
-        <v>117</v>
       </c>
       <c r="T12">
         <v>118.9255</v>
@@ -8738,9 +8738,9 @@
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13"/>
       <c r="C13">
-        <v>0.18180750000000001</v>
+        <v>0.1954717</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -8748,37 +8748,37 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13"/>
-      <c r="G13">
+      <c r="F13" s="21"/>
+      <c r="G13" s="6"/>
+      <c r="H13">
+        <v>0.18180750000000001</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13">
         <v>0.34183669999999999</v>
       </c>
-      <c r="H13">
+      <c r="M13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13"/>
-      <c r="K13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13"/>
+      <c r="P13">
         <v>0.5</v>
       </c>
-      <c r="L13">
+      <c r="Q13">
         <v>1</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13"/>
-      <c r="O13">
-        <v>0.1954717</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="21"/>
+      <c r="R13">
+        <v>0</v>
+      </c>
       <c r="T13">
         <v>0.1954717</v>
       </c>
@@ -8796,48 +8796,48 @@
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14"/>
       <c r="C14">
+        <v>1.8149230000000001</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14">
         <v>1.662113</v>
       </c>
-      <c r="D14">
+      <c r="I14">
         <v>14.1</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14">
         <v>3.42814</v>
       </c>
-      <c r="H14">
+      <c r="M14">
         <v>15</v>
       </c>
-      <c r="I14">
+      <c r="N14">
         <v>0.1</v>
       </c>
-      <c r="J14"/>
-      <c r="K14">
+      <c r="O14"/>
+      <c r="P14">
         <v>9.85</v>
       </c>
-      <c r="L14">
+      <c r="Q14">
         <v>9.85</v>
       </c>
-      <c r="M14">
+      <c r="R14">
         <v>9.85</v>
-      </c>
-      <c r="N14"/>
-      <c r="O14">
-        <v>1.8149230000000001</v>
-      </c>
-      <c r="P14">
-        <v>15</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" s="20" t="s">
-        <v>118</v>
       </c>
       <c r="T14">
         <v>1.8149230000000001</v>
@@ -8856,9 +8856,9 @@
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15"/>
       <c r="C15">
-        <v>0.72203949999999995</v>
+        <v>0.72549039999999998</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -8866,37 +8866,37 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15"/>
-      <c r="G15">
+      <c r="F15" s="21"/>
+      <c r="G15" s="6"/>
+      <c r="H15">
+        <v>0.72203949999999995</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15">
         <v>0.76144679999999998</v>
       </c>
-      <c r="H15">
+      <c r="M15">
         <v>3</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15"/>
-      <c r="K15">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15">
         <v>1</v>
       </c>
-      <c r="L15">
+      <c r="Q15">
         <v>1</v>
       </c>
-      <c r="M15">
+      <c r="R15">
         <v>1</v>
       </c>
-      <c r="N15"/>
-      <c r="O15">
-        <v>0.72549039999999998</v>
-      </c>
-      <c r="P15">
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15" s="21"/>
       <c r="T15">
         <v>0.72549039999999998</v>
       </c>
@@ -8914,9 +8914,9 @@
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16"/>
       <c r="C16">
-        <v>0.73705710000000002</v>
+        <v>0.71783920000000001</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -8924,38 +8924,38 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16"/>
-      <c r="G16">
+      <c r="F16" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16">
+        <v>0.73705710000000002</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16">
         <v>0.51320809999999994</v>
       </c>
-      <c r="H16">
+      <c r="M16">
         <v>0.97252780000000005</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16"/>
-      <c r="K16">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16"/>
+      <c r="P16">
         <v>4.9971000000000002E-2</v>
       </c>
-      <c r="L16">
+      <c r="Q16">
         <v>5.9359099999999998E-2</v>
       </c>
-      <c r="M16">
+      <c r="R16">
         <v>3.2248800000000001E-2</v>
-      </c>
-      <c r="N16"/>
-      <c r="O16">
-        <v>0.71783920000000001</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" s="20" t="s">
-        <v>118</v>
       </c>
       <c r="T16">
         <v>0.71783920000000001</v>
@@ -8974,9 +8974,9 @@
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17"/>
       <c r="C17">
-        <v>0.53835279999999996</v>
+        <v>0.53929919999999998</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -8984,37 +8984,37 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17"/>
-      <c r="G17">
+      <c r="F17" s="21"/>
+      <c r="G17" s="6"/>
+      <c r="H17">
+        <v>0.53835279999999996</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17">
         <v>0.54974489999999998</v>
       </c>
-      <c r="H17">
+      <c r="M17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17"/>
-      <c r="K17">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17"/>
+      <c r="P17">
         <v>0.5</v>
       </c>
-      <c r="L17">
+      <c r="Q17">
         <v>1</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17"/>
-      <c r="O17">
-        <v>0.53929919999999998</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17" s="21"/>
+      <c r="R17">
+        <v>0</v>
+      </c>
       <c r="T17">
         <v>0.53929919999999998</v>
       </c>
@@ -9032,9 +9032,9 @@
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18"/>
       <c r="C18">
-        <v>54.561100000000003</v>
+        <v>54.400570000000002</v>
       </c>
       <c r="D18">
         <v>75</v>
@@ -9042,37 +9042,37 @@
       <c r="E18">
         <v>31</v>
       </c>
-      <c r="F18"/>
-      <c r="G18">
+      <c r="F18" s="21"/>
+      <c r="G18" s="6"/>
+      <c r="H18">
+        <v>54.561100000000003</v>
+      </c>
+      <c r="I18">
+        <v>75</v>
+      </c>
+      <c r="J18">
+        <v>31</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18">
         <v>52.653599999999997</v>
       </c>
-      <c r="H18">
+      <c r="M18">
         <v>75</v>
       </c>
-      <c r="I18">
+      <c r="N18">
         <v>31</v>
       </c>
-      <c r="J18"/>
-      <c r="K18">
+      <c r="O18"/>
+      <c r="P18">
         <v>56.198509999999999</v>
       </c>
-      <c r="L18">
+      <c r="Q18">
         <v>59</v>
       </c>
-      <c r="M18">
+      <c r="R18">
         <v>54.397010000000002</v>
       </c>
-      <c r="N18"/>
-      <c r="O18">
-        <v>54.400570000000002</v>
-      </c>
-      <c r="P18">
-        <v>75</v>
-      </c>
-      <c r="Q18">
-        <v>31</v>
-      </c>
-      <c r="R18" s="21"/>
       <c r="T18">
         <v>54.400570000000002</v>
       </c>
@@ -9090,9 +9090,9 @@
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19"/>
       <c r="C19">
-        <v>6.9788709999999998</v>
+        <v>6.9759169999999999</v>
       </c>
       <c r="D19">
         <v>17</v>
@@ -9100,37 +9100,37 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19"/>
-      <c r="G19">
+      <c r="F19" s="21"/>
+      <c r="G19" s="6"/>
+      <c r="H19">
+        <v>6.9788709999999998</v>
+      </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19">
         <v>6.9540920000000002</v>
       </c>
-      <c r="H19">
+      <c r="M19">
         <v>14</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19"/>
-      <c r="K19">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19">
         <v>4.987959</v>
       </c>
-      <c r="L19">
+      <c r="Q19">
         <v>6.9759169999999999</v>
       </c>
-      <c r="M19">
+      <c r="R19">
         <v>3</v>
       </c>
-      <c r="N19"/>
-      <c r="O19">
-        <v>6.9759169999999999</v>
-      </c>
-      <c r="P19">
-        <v>17</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" s="21"/>
       <c r="T19">
         <v>6.9759169999999999</v>
       </c>
@@ -9148,9 +9148,9 @@
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20"/>
       <c r="C20">
-        <v>3.9707800000000001E-2</v>
+        <v>3.9784399999999998E-2</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -9158,38 +9158,38 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20"/>
-      <c r="G20">
+      <c r="F20" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20">
+        <v>3.9707800000000001E-2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20">
         <v>3.8265300000000002E-2</v>
       </c>
-      <c r="H20">
+      <c r="M20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20"/>
+      <c r="P20">
         <v>0.5</v>
       </c>
-      <c r="L20">
+      <c r="Q20">
         <v>1</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20"/>
-      <c r="O20">
-        <v>3.9784399999999998E-2</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" s="21" t="s">
-        <v>118</v>
+      <c r="R20">
+        <v>0</v>
       </c>
       <c r="T20">
         <v>3.9784399999999998E-2</v>
@@ -9208,9 +9208,9 @@
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21"/>
       <c r="C21">
-        <v>4.3025799999999998</v>
+        <v>4.3071700000000002</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -9218,37 +9218,37 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21"/>
-      <c r="G21">
+      <c r="F21" s="21"/>
+      <c r="G21" s="6"/>
+      <c r="H21">
+        <v>4.3025799999999998</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21">
         <v>4.3571429999999998</v>
       </c>
-      <c r="H21">
+      <c r="M21">
         <v>5</v>
       </c>
-      <c r="I21">
+      <c r="N21">
         <v>3</v>
       </c>
-      <c r="J21"/>
-      <c r="K21">
+      <c r="O21"/>
+      <c r="P21">
         <v>4.25</v>
       </c>
-      <c r="L21">
+      <c r="Q21">
         <v>5</v>
       </c>
-      <c r="M21">
+      <c r="R21">
         <v>4</v>
       </c>
-      <c r="N21"/>
-      <c r="O21">
-        <v>4.3071700000000002</v>
-      </c>
-      <c r="P21">
-        <v>5</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21" s="21"/>
       <c r="T21">
         <v>4.3071700000000002</v>
       </c>
@@ -9266,9 +9266,9 @@
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22"/>
       <c r="C22">
-        <v>0.2166843</v>
+        <v>0.2168194</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -9276,37 +9276,37 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22"/>
-      <c r="G22">
+      <c r="F22" s="21"/>
+      <c r="G22" s="7"/>
+      <c r="H22">
+        <v>0.2166843</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22">
         <v>0.21938779999999999</v>
       </c>
-      <c r="H22">
+      <c r="M22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22"/>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22"/>
-      <c r="O22">
-        <v>0.2168194</v>
-      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22"/>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22" s="21"/>
+      <c r="R22">
+        <v>0</v>
+      </c>
       <c r="T22">
         <v>0.2168194</v>
       </c>
@@ -9324,29 +9324,29 @@
       <c r="A23" s="19" t="s">
         <v>116</v>
       </c>
+      <c r="B23"/>
       <c r="C23">
-        <v>8487</v>
+        <v>9275</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23">
-        <v>784</v>
-      </c>
-      <c r="H23"/>
+      <c r="H23">
+        <v>8487</v>
+      </c>
       <c r="I23"/>
       <c r="J23"/>
-      <c r="K23">
-        <v>4</v>
-      </c>
-      <c r="L23"/>
+      <c r="K23"/>
+      <c r="L23">
+        <v>784</v>
+      </c>
       <c r="M23"/>
       <c r="N23"/>
-      <c r="O23">
-        <v>9275</v>
-      </c>
-      <c r="P23"/>
+      <c r="O23"/>
+      <c r="P23">
+        <v>4</v>
+      </c>
       <c r="Q23"/>
+      <c r="R23"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A24" s="63" t="s">
@@ -22823,6 +22823,9 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="H2:J2"/>
     <mergeCell ref="A48:L48"/>
     <mergeCell ref="A72:L72"/>
     <mergeCell ref="A73:A74"/>
@@ -22830,10 +22833,7 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A24:L24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="A95:L95"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A118:L118"/>
@@ -33046,7 +33046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CY238"/>
   <sheetViews>
-    <sheetView topLeftCell="CE1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="CA3" sqref="CA3:CX8"/>
     </sheetView>
   </sheetViews>
@@ -48423,8 +48423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:M39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/回归结果/double小麦.xlsx
+++ b/回归结果/double小麦.xlsx
@@ -1468,31 +1468,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1505,6 +1490,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4386,10 +4386,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4397,9 +4394,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>machane</a:t>
+              <a:rPr lang="zh-CN" altLang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>两熟小麦</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4419,10 +4425,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4445,7 +4448,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4803,331 +4806,331 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3968834764909366</c:v>
+                  <c:v>0.92106532196795388</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5496067584084541</c:v>
+                  <c:v>0.8735216165945856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.600859531567592</c:v>
+                  <c:v>0.83944140139233481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.603676609530535</c:v>
+                  <c:v>0.81290518275447754</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5817105012466457</c:v>
+                  <c:v>0.79120377849386192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5467580868046644</c:v>
+                  <c:v>0.77286703569408333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5051477644582505</c:v>
+                  <c:v>0.75700693872432601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4604424198708865</c:v>
+                  <c:v>0.74304573447240529</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4147101545832477</c:v>
+                  <c:v>0.73058636719209191</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3691700963515834</c:v>
+                  <c:v>0.71934421507248214</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3245408593445287</c:v>
+                  <c:v>0.70910830283381843</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2812376385626492</c:v>
+                  <c:v>0.69971792044369985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2394879758959587</c:v>
+                  <c:v>0.69104784107046913</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1994018593695241</c:v>
+                  <c:v>0.68299860140895519</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1610152263939271</c:v>
+                  <c:v>0.67548989659751391</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1243174971181837</c:v>
+                  <c:v>0.66845596392443363</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0892692684668752</c:v>
+                  <c:v>0.66184227745257707</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0558138128604408</c:v>
+                  <c:v>0.65560313082698396</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0238846040193119</c:v>
+                  <c:v>0.64969983648886265</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99341025579825548</c:v>
+                  <c:v>0.64409936184547312</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.96431775527094765</c:v>
+                  <c:v>0.63877328107859765</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.93653455988504564</c:v>
+                  <c:v>0.63369695883356714</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.90998993257037208</c:v>
+                  <c:v>0.6288489068621087</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.88461576322664348</c:v>
+                  <c:v>0.62421027145153285</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.86034704343508517</c:v>
+                  <c:v>0.61976442099710249</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.83712210745191051</c:v>
+                  <c:v>0.61549661113446685</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.81488271664589795</c:v>
+                  <c:v>0.61139371057400271</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.793574040327653</c:v>
+                  <c:v>0.60744397490329516</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.77314456942916032</c:v>
+                  <c:v>0.60363685863422922</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.75354598817281282</c:v>
+                  <c:v>0.59996285799479132</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7347330210452071</c:v>
+                  <c:v>0.59641337862662991</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.71666326695303162</c:v>
+                  <c:v>0.59298062360293891</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.69929702864267995</c:v>
+                  <c:v>0.58965749813641866</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.68259714280831196</c:v>
+                  <c:v>0.58643752808146765</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.66652881445097045</c:v>
+                  <c:v>0.58331478990418772</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.65105945774699558</c:v>
+                  <c:v>0.58028385023876938</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.63615854477280454</c:v>
+                  <c:v>0.57733971349915725</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.62179746280009962</c:v>
+                  <c:v>0.57447777629262597</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.60794938043982649</c:v>
+                  <c:v>0.57169378760353129</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.59458912261754537</c:v>
+                  <c:v>0.5689838138934582</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.5816930541666363</c:v>
+                  <c:v>0.56634420840772814</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.56923897170002991</c:v>
+                  <c:v>0.56377158409496442</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.55720600334514081</c:v>
+                  <c:v>0.56126278964174103</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.54557451588560424</c:v>
+                  <c:v>0.55881488820254643</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.53432602883656144</c:v>
+                  <c:v>0.55642513846979413</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.52344313497999628</c:v>
+                  <c:v>0.55409097778202232</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.51290942689749031</c:v>
+                  <c:v>0.55181000701286176</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.50270942905580862</c:v>
+                  <c:v>0.54957997702046757</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.49282853502318125</c:v>
+                  <c:v>0.54739877646823898</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.48325294941901381</c:v>
+                  <c:v>0.54526442085385085</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.4739696342256664</c:v>
+                  <c:v>0.54317504260576477</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.46496625911693867</c:v>
+                  <c:v>0.54112888212514931</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.45623115548333615</c:v>
+                  <c:v>0.53912427966710885</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.4477532738586581</c:v>
+                  <c:v>0.53715966796874293</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.43952214447568078</c:v>
+                  <c:v>0.53523356554321921</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.43152784070055189</c:v>
+                  <c:v>0.53334457056905615</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.42376094511592816</c:v>
+                  <c:v>0.53149135531243141</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.41621251804183312</c:v>
+                  <c:v>0.52967266102777222</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.40887406830073897</c:v>
+                  <c:v>0.52788729328833084</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.40173752604953161</c:v>
+                  <c:v>0.52613411770402885</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.39479521751587082</c:v>
+                  <c:v>0.52441205598873186</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.38803984149007165</c:v>
+                  <c:v>0.52272008234334122</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.38146444743612673</c:v>
+                  <c:v>0.52105722012480993</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.37506241509689697</c:v>
+                  <c:v>0.51942253877442923</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.36882743547894636</c:v>
+                  <c:v>0.51781515098158526</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.36275349311201455</c:v>
+                  <c:v>0.51623421006169212</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.35683484948685545</c:v>
+                  <c:v>0.5146789075292213</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.35106602758309358</c:v>
+                  <c:v>0.51314847084869308</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.34544179740602382</c:v>
+                  <c:v>0.51164216134823082</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.33995716245789986</c:v>
+                  <c:v>0.51015927228180358</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.3346073470752986</c:v>
+                  <c:v>0.50869912702764686</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.32938778456968332</c:v>
+                  <c:v>0.5072610774115589</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.32429410611331821</c:v>
+                  <c:v>0.505844502144849</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.31932213031730999</c:v>
+                  <c:v>0.50444880536767533</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.3144678534527463</c:v>
+                  <c:v>0.503073415289371</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.30972744026977911</c:v>
+                  <c:v>0.50171778291812841</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.30509721537299461</c:v>
+                  <c:v>0.50038138087309736</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.30057365511466161</c:v>
+                  <c:v>0.49906370227258051</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.29615337997039182</c:v>
+                  <c:v>0.49776425969255994</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.29183314736445243</c:v>
+                  <c:v>0.49648258419029467</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.28760984491445407</c:v>
+                  <c:v>0.49521822438818219</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.28348048406741422</c:v>
+                  <c:v>0.49397074561348342</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.27944219410128113</c:v>
+                  <c:v>0.49273972908988189</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.27549221646791994</c:v>
+                  <c:v>0.49152477117718213</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.27162789945533827</c:v>
+                  <c:v>0.49032548265575671</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.26784669314852061</c:v>
+                  <c:v>0.48914148805262314</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.26414614466976855</c:v>
+                  <c:v>0.48797242500628601</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.26052389368077844</c:v>
+                  <c:v>0.48681794366770448</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.25697766812998213</c:v>
+                  <c:v>0.48567770613495154</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.25350528022982383</c:v>
+                  <c:v>0.4845513859193249</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.25010462264972105</c:v>
+                  <c:v>0.48343866744083358</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.24677366491146174</c:v>
+                  <c:v>0.48233924555114949</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.24351044997468327</c:v>
+                  <c:v>0.48125282508225159</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.24031309100094819</c:v>
+                  <c:v>0.48017912041912447</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.23717976828569154</c:v>
+                  <c:v>0.47911785509499233</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.23410872634805241</c:v>
+                  <c:v>0.47806876140768123</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.23109827116926382</c:v>
+                  <c:v>0.47703158005580226</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.22814676757089572</c:v>
+                  <c:v>0.47600605979354188</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.22525263672481832</c:v>
+                  <c:v>0.47499195710293346</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.22241435378729466</c:v>
+                  <c:v>0.47398903588255931</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.21963044565008386</c:v>
+                  <c:v>0.47299706715170742</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.21689948880191826</c:v>
+                  <c:v>0.47201582876907355</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.21422010729412905</c:v>
+                  <c:v>0.47104510516516179</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.21159097080458905</c:v>
+                  <c:v>0.47008468708759066</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.20901079279451917</c:v>
+                  <c:v>0.46913437135856967</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.20647832875303412</c:v>
+                  <c:v>0.46819396064385421</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.20399237452463079</c:v>
+                  <c:v>0.46726326323253609</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.20155176471511591</c:v>
+                  <c:v>0.46634209282706784</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.19915537117173715</c:v>
+                  <c:v>0.46543026834295348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5157,20 +5160,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5179,10 +5168,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -5195,12 +5181,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -5219,20 +5202,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5241,10 +5210,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -5256,12 +5222,7 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -5277,7 +5238,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -5287,16 +5250,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -7351,16 +7307,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7377,82 +7333,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>593614</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12431</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6296025" y="952500"/>
-          <a:ext cx="4584589" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>345964</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>136256</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8105775" y="2219325"/>
-          <a:ext cx="4584589" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -7476,7 +7356,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8094,52 +7974,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="63" t="s">
         <v>106</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="64">
+      <c r="H2" s="63">
         <v>1</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="64">
+      <c r="L2" s="63">
         <v>2</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="64">
+      <c r="P2" s="63">
         <v>3</v>
       </c>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -9349,23 +9229,23 @@
       <c r="R23"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="63" t="s">
         <v>108</v>
       </c>
       <c r="B25" s="2"/>
@@ -10279,23 +10159,23 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A48" s="63" t="s">
+      <c r="A48" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="63"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A49" s="64" t="s">
+      <c r="A49" s="63" t="s">
         <v>108</v>
       </c>
       <c r="B49" s="2"/>
@@ -13158,23 +13038,23 @@
       </c>
     </row>
     <row r="72" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A72" s="63" t="s">
+      <c r="A72" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="63"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63"/>
-      <c r="F72" s="63"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="63"/>
-      <c r="K72" s="63"/>
-      <c r="L72" s="63"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="64"/>
+      <c r="K72" s="64"/>
+      <c r="L72" s="64"/>
     </row>
     <row r="73" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A73" s="64" t="s">
+      <c r="A73" s="63" t="s">
         <v>108</v>
       </c>
       <c r="B73" s="2"/>
@@ -15961,23 +15841,23 @@
       </c>
     </row>
     <row r="95" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A95" s="63" t="s">
+      <c r="A95" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="B95" s="63"/>
-      <c r="C95" s="63"/>
-      <c r="D95" s="63"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="63"/>
-      <c r="G95" s="63"/>
-      <c r="H95" s="63"/>
-      <c r="I95" s="63"/>
-      <c r="J95" s="63"/>
-      <c r="K95" s="63"/>
-      <c r="L95" s="63"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="64"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="64"/>
+      <c r="J95" s="64"/>
+      <c r="K95" s="64"/>
+      <c r="L95" s="64"/>
     </row>
     <row r="96" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A96" s="64" t="s">
+      <c r="A96" s="63" t="s">
         <v>108</v>
       </c>
       <c r="B96" s="2"/>
@@ -18840,23 +18720,23 @@
       </c>
     </row>
     <row r="118" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A118" s="63" t="s">
+      <c r="A118" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="B118" s="63"/>
-      <c r="C118" s="63"/>
-      <c r="D118" s="63"/>
-      <c r="E118" s="63"/>
-      <c r="F118" s="63"/>
-      <c r="G118" s="63"/>
-      <c r="H118" s="63"/>
-      <c r="I118" s="63"/>
-      <c r="J118" s="63"/>
-      <c r="K118" s="63"/>
-      <c r="L118" s="63"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="64"/>
+      <c r="H118" s="64"/>
+      <c r="I118" s="64"/>
+      <c r="J118" s="64"/>
+      <c r="K118" s="64"/>
+      <c r="L118" s="64"/>
     </row>
     <row r="119" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A119" s="64" t="s">
+      <c r="A119" s="63" t="s">
         <v>108</v>
       </c>
       <c r="B119" s="2"/>
@@ -22823,22 +22703,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="A72:L72"/>
+    <mergeCell ref="A95:L95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A118:L118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A49:A50"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A24:L24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="A95:L95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A118:L118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="A72:L72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29687,26 +29567,26 @@
   </cols>
   <sheetData>
     <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.15">
@@ -29731,15 +29611,15 @@
       <c r="G23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="69" t="s">
+      <c r="K23" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
     </row>
     <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
@@ -29764,15 +29644,15 @@
       <c r="G24" s="3">
         <v>7.7743000000000007E-2</v>
       </c>
-      <c r="K24" s="67" t="s">
+      <c r="K24" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
     </row>
     <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
@@ -31191,18 +31071,18 @@
       <c r="Q66" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="R66" s="70" t="s">
+      <c r="R66" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="S66" s="70"/>
-      <c r="T66" s="70" t="s">
+      <c r="S66" s="72"/>
+      <c r="T66" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="U66" s="70"/>
-      <c r="V66" s="70" t="s">
+      <c r="U66" s="72"/>
+      <c r="V66" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="W66" s="70"/>
+      <c r="W66" s="72"/>
     </row>
     <row r="67" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="Q67" s="42" t="s">
@@ -31312,15 +31192,15 @@
       </c>
     </row>
     <row r="71" spans="1:23" ht="15" x14ac:dyDescent="0.15">
-      <c r="A71" s="69" t="s">
+      <c r="A71" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="63"/>
-      <c r="C71" s="63"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="63"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
       <c r="Q71" s="42" t="s">
         <v>51</v>
       </c>
@@ -31347,15 +31227,15 @@
       </c>
     </row>
     <row r="72" spans="1:23" ht="15" x14ac:dyDescent="0.15">
-      <c r="A72" s="67" t="s">
+      <c r="A72" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="B72" s="67"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
       <c r="Q72" s="42" t="s">
         <v>45</v>
       </c>
@@ -32674,10 +32554,10 @@
       <c r="Q97" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="R97" s="75" t="s">
+      <c r="R97" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="S97" s="75"/>
+      <c r="S97" s="70"/>
       <c r="T97" s="71" t="s">
         <v>136</v>
       </c>
@@ -32764,14 +32644,14 @@
       <c r="Q99" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="R99" s="72" t="s">
+      <c r="R99" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="S99" s="72"/>
-      <c r="T99" s="72"/>
-      <c r="U99" s="72"/>
-      <c r="V99" s="72"/>
-      <c r="W99" s="72"/>
+      <c r="S99" s="67"/>
+      <c r="T99" s="67"/>
+      <c r="U99" s="67"/>
+      <c r="V99" s="67"/>
+      <c r="W99" s="67"/>
     </row>
     <row r="100" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
@@ -32803,18 +32683,18 @@
       <c r="Q100" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="R100" s="73">
+      <c r="R100" s="68">
         <v>0.41510000000000002</v>
       </c>
-      <c r="S100" s="73"/>
-      <c r="T100" s="74" t="s">
+      <c r="S100" s="68"/>
+      <c r="T100" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="U100" s="74"/>
-      <c r="V100" s="74" t="s">
+      <c r="U100" s="69"/>
+      <c r="V100" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="W100" s="74"/>
+      <c r="W100" s="69"/>
     </row>
     <row r="101" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
@@ -33013,6 +32893,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="T96:U96"/>
+    <mergeCell ref="V96:W96"/>
     <mergeCell ref="R99:W99"/>
     <mergeCell ref="R100:S100"/>
     <mergeCell ref="T100:U100"/>
@@ -33023,18 +32915,6 @@
     <mergeCell ref="R98:S98"/>
     <mergeCell ref="T98:U98"/>
     <mergeCell ref="V98:W98"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="T96:U96"/>
-    <mergeCell ref="V96:W96"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="A71:G71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40349,10 +40229,10 @@
       <c r="A33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="71" t="s">
         <v>136</v>
       </c>
@@ -40623,12 +40503,12 @@
       <c r="A35" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
       <c r="H35" s="10"/>
       <c r="J35" s="3" t="s">
         <v>83</v>
@@ -40755,8 +40635,8 @@
       <c r="A36" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
@@ -48397,6 +48277,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B33:C33"/>
@@ -48405,12 +48291,6 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48424,7 +48304,7 @@
   <dimension ref="E7:P119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="P10" sqref="P10:P119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -48500,7 +48380,7 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <f>EXP(0.625*LN(O10)-0.206*(LN(O10))^2)</f>
+        <f>EXP(-0.111*LN(O10)-0.011*(LN(O10))^2)</f>
         <v>1</v>
       </c>
     </row>
@@ -48532,8 +48412,8 @@
         <v>2</v>
       </c>
       <c r="P11">
-        <f t="shared" ref="P11:P74" si="0">EXP(0.625*LN(O11)-0.206*(LN(O11))^2)</f>
-        <v>1.3968834764909366</v>
+        <f t="shared" ref="P11:P74" si="0">EXP(-0.111*LN(O11)-0.011*(LN(O11))^2)</f>
+        <v>0.92106532196795388</v>
       </c>
     </row>
     <row r="12" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48557,7 +48437,7 @@
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>1.5496067584084541</v>
+        <v>0.8735216165945856</v>
       </c>
     </row>
     <row r="13" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48581,7 +48461,7 @@
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>1.600859531567592</v>
+        <v>0.83944140139233481</v>
       </c>
     </row>
     <row r="14" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48605,7 +48485,7 @@
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>1.603676609530535</v>
+        <v>0.81290518275447754</v>
       </c>
     </row>
     <row r="15" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48629,7 +48509,7 @@
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>1.5817105012466457</v>
+        <v>0.79120377849386192</v>
       </c>
     </row>
     <row r="16" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48653,7 +48533,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>1.5467580868046644</v>
+        <v>0.77286703569408333</v>
       </c>
     </row>
     <row r="17" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48677,7 +48557,7 @@
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>1.5051477644582505</v>
+        <v>0.75700693872432601</v>
       </c>
     </row>
     <row r="18" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48701,7 +48581,7 @@
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>1.4604424198708865</v>
+        <v>0.74304573447240529</v>
       </c>
     </row>
     <row r="19" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48725,7 +48605,7 @@
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>1.4147101545832477</v>
+        <v>0.73058636719209191</v>
       </c>
     </row>
     <row r="20" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48749,7 +48629,7 @@
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>1.3691700963515834</v>
+        <v>0.71934421507248214</v>
       </c>
     </row>
     <row r="21" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48773,7 +48653,7 @@
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>1.3245408593445287</v>
+        <v>0.70910830283381843</v>
       </c>
     </row>
     <row r="22" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48797,7 +48677,7 @@
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>1.2812376385626492</v>
+        <v>0.69971792044369985</v>
       </c>
     </row>
     <row r="23" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48821,7 +48701,7 @@
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
-        <v>1.2394879758959587</v>
+        <v>0.69104784107046913</v>
       </c>
     </row>
     <row r="24" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48845,7 +48725,7 @@
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>1.1994018593695241</v>
+        <v>0.68299860140895519</v>
       </c>
     </row>
     <row r="25" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48869,7 +48749,7 @@
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
-        <v>1.1610152263939271</v>
+        <v>0.67548989659751391</v>
       </c>
     </row>
     <row r="26" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48893,7 +48773,7 @@
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>1.1243174971181837</v>
+        <v>0.66845596392443363</v>
       </c>
     </row>
     <row r="27" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48917,7 +48797,7 @@
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
-        <v>1.0892692684668752</v>
+        <v>0.66184227745257707</v>
       </c>
     </row>
     <row r="28" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48941,7 +48821,7 @@
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
-        <v>1.0558138128604408</v>
+        <v>0.65560313082698396</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48965,7 +48845,7 @@
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
-        <v>1.0238846040193119</v>
+        <v>0.64969983648886265</v>
       </c>
     </row>
     <row r="30" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -48989,7 +48869,7 @@
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
-        <v>0.99341025579825548</v>
+        <v>0.64409936184547312</v>
       </c>
     </row>
     <row r="31" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -49013,7 +48893,7 @@
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
-        <v>0.96431775527094765</v>
+        <v>0.63877328107859765</v>
       </c>
     </row>
     <row r="32" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -49037,7 +48917,7 @@
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
-        <v>0.93653455988504564</v>
+        <v>0.63369695883356714</v>
       </c>
     </row>
     <row r="33" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -49061,7 +48941,7 @@
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
-        <v>0.90998993257037208</v>
+        <v>0.6288489068621087</v>
       </c>
     </row>
     <row r="34" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -49085,7 +48965,7 @@
       </c>
       <c r="P34">
         <f t="shared" si="0"/>
-        <v>0.88461576322664348</v>
+        <v>0.62421027145153285</v>
       </c>
     </row>
     <row r="35" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -49109,7 +48989,7 @@
       </c>
       <c r="P35">
         <f t="shared" si="0"/>
-        <v>0.86034704343508517</v>
+        <v>0.61976442099710249</v>
       </c>
     </row>
     <row r="36" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -49133,7 +49013,7 @@
       </c>
       <c r="P36">
         <f t="shared" si="0"/>
-        <v>0.83712210745191051</v>
+        <v>0.61549661113446685</v>
       </c>
     </row>
     <row r="37" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -49157,7 +49037,7 @@
       </c>
       <c r="P37">
         <f t="shared" si="0"/>
-        <v>0.81488271664589795</v>
+        <v>0.61139371057400271</v>
       </c>
     </row>
     <row r="38" spans="5:16" ht="15" x14ac:dyDescent="0.15">
@@ -49181,7 +49061,7 @@
       </c>
       <c r="P38">
         <f t="shared" si="0"/>
-        <v>0.793574040327653</v>
+        <v>0.60744397490329516</v>
       </c>
     </row>
     <row r="39" spans="5:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -49203,7 +49083,7 @@
       </c>
       <c r="P39">
         <f t="shared" si="0"/>
-        <v>0.77314456942916032</v>
+        <v>0.60363685863422922</v>
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.15">
@@ -49212,7 +49092,7 @@
       </c>
       <c r="P40">
         <f t="shared" si="0"/>
-        <v>0.75354598817281282</v>
+        <v>0.59996285799479132</v>
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.15">
@@ -49221,7 +49101,7 @@
       </c>
       <c r="P41">
         <f t="shared" si="0"/>
-        <v>0.7347330210452071</v>
+        <v>0.59641337862662991</v>
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.15">
@@ -49230,7 +49110,7 @@
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
-        <v>0.71666326695303162</v>
+        <v>0.59298062360293891</v>
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.15">
@@ -49239,7 +49119,7 @@
       </c>
       <c r="P43">
         <f t="shared" si="0"/>
-        <v>0.69929702864267995</v>
+        <v>0.58965749813641866</v>
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.15">
@@ -49248,7 +49128,7 @@
       </c>
       <c r="P44">
         <f t="shared" si="0"/>
-        <v>0.68259714280831196</v>
+        <v>0.58643752808146765</v>
       </c>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.15">
@@ -49257,7 +49137,7 @@
       </c>
       <c r="P45">
         <f t="shared" si="0"/>
-        <v>0.66652881445097045</v>
+        <v>0.58331478990418772</v>
       </c>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.15">
@@ -49266,7 +49146,7 @@
       </c>
       <c r="P46">
         <f t="shared" si="0"/>
-        <v>0.65105945774699558</v>
+        <v>0.58028385023876938</v>
       </c>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.15">
@@ -49275,7 +49155,7 @@
       </c>
       <c r="P47">
         <f t="shared" si="0"/>
-        <v>0.63615854477280454</v>
+        <v>0.57733971349915725</v>
       </c>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.15">
@@ -49284,7 +49164,7 @@
       </c>
       <c r="P48">
         <f t="shared" si="0"/>
-        <v>0.62179746280009962</v>
+        <v>0.57447777629262597</v>
       </c>
     </row>
     <row r="49" spans="15:16" x14ac:dyDescent="0.15">
@@ -49293,7 +49173,7 @@
       </c>
       <c r="P49">
         <f t="shared" si="0"/>
-        <v>0.60794938043982649</v>
+        <v>0.57169378760353129</v>
       </c>
     </row>
     <row r="50" spans="15:16" x14ac:dyDescent="0.15">
@@ -49302,7 +49182,7 @@
       </c>
       <c r="P50">
         <f t="shared" si="0"/>
-        <v>0.59458912261754537</v>
+        <v>0.5689838138934582</v>
       </c>
     </row>
     <row r="51" spans="15:16" x14ac:dyDescent="0.15">
@@ -49311,7 +49191,7 @@
       </c>
       <c r="P51">
         <f t="shared" si="0"/>
-        <v>0.5816930541666363</v>
+        <v>0.56634420840772814</v>
       </c>
     </row>
     <row r="52" spans="15:16" x14ac:dyDescent="0.15">
@@ -49320,7 +49200,7 @@
       </c>
       <c r="P52">
         <f t="shared" si="0"/>
-        <v>0.56923897170002991</v>
+        <v>0.56377158409496442</v>
       </c>
     </row>
     <row r="53" spans="15:16" x14ac:dyDescent="0.15">
@@ -49329,7 +49209,7 @@
       </c>
       <c r="P53">
         <f t="shared" si="0"/>
-        <v>0.55720600334514081</v>
+        <v>0.56126278964174103</v>
       </c>
     </row>
     <row r="54" spans="15:16" x14ac:dyDescent="0.15">
@@ -49338,7 +49218,7 @@
       </c>
       <c r="P54">
         <f t="shared" si="0"/>
-        <v>0.54557451588560424</v>
+        <v>0.55881488820254643</v>
       </c>
     </row>
     <row r="55" spans="15:16" x14ac:dyDescent="0.15">
@@ -49347,7 +49227,7 @@
       </c>
       <c r="P55">
         <f t="shared" si="0"/>
-        <v>0.53432602883656144</v>
+        <v>0.55642513846979413</v>
       </c>
     </row>
     <row r="56" spans="15:16" x14ac:dyDescent="0.15">
@@ -49356,7 +49236,7 @@
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>0.52344313497999628</v>
+        <v>0.55409097778202232</v>
       </c>
     </row>
     <row r="57" spans="15:16" x14ac:dyDescent="0.15">
@@ -49365,7 +49245,7 @@
       </c>
       <c r="P57">
         <f t="shared" si="0"/>
-        <v>0.51290942689749031</v>
+        <v>0.55181000701286176</v>
       </c>
     </row>
     <row r="58" spans="15:16" x14ac:dyDescent="0.15">
@@ -49374,7 +49254,7 @@
       </c>
       <c r="P58">
         <f t="shared" si="0"/>
-        <v>0.50270942905580862</v>
+        <v>0.54957997702046757</v>
       </c>
     </row>
     <row r="59" spans="15:16" x14ac:dyDescent="0.15">
@@ -49383,7 +49263,7 @@
       </c>
       <c r="P59">
         <f t="shared" si="0"/>
-        <v>0.49282853502318125</v>
+        <v>0.54739877646823898</v>
       </c>
     </row>
     <row r="60" spans="15:16" x14ac:dyDescent="0.15">
@@ -49392,7 +49272,7 @@
       </c>
       <c r="P60">
         <f t="shared" si="0"/>
-        <v>0.48325294941901381</v>
+        <v>0.54526442085385085</v>
       </c>
     </row>
     <row r="61" spans="15:16" x14ac:dyDescent="0.15">
@@ -49401,7 +49281,7 @@
       </c>
       <c r="P61">
         <f t="shared" si="0"/>
-        <v>0.4739696342256664</v>
+        <v>0.54317504260576477</v>
       </c>
     </row>
     <row r="62" spans="15:16" x14ac:dyDescent="0.15">
@@ -49410,7 +49290,7 @@
       </c>
       <c r="P62">
         <f t="shared" si="0"/>
-        <v>0.46496625911693867</v>
+        <v>0.54112888212514931</v>
       </c>
     </row>
     <row r="63" spans="15:16" x14ac:dyDescent="0.15">
@@ -49419,7 +49299,7 @@
       </c>
       <c r="P63">
         <f t="shared" si="0"/>
-        <v>0.45623115548333615</v>
+        <v>0.53912427966710885</v>
       </c>
     </row>
     <row r="64" spans="15:16" x14ac:dyDescent="0.15">
@@ -49428,7 +49308,7 @@
       </c>
       <c r="P64">
         <f t="shared" si="0"/>
-        <v>0.4477532738586581</v>
+        <v>0.53715966796874293</v>
       </c>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.15">
@@ -49437,7 +49317,7 @@
       </c>
       <c r="P65">
         <f t="shared" si="0"/>
-        <v>0.43952214447568078</v>
+        <v>0.53523356554321921</v>
       </c>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.15">
@@ -49446,7 +49326,7 @@
       </c>
       <c r="P66">
         <f t="shared" si="0"/>
-        <v>0.43152784070055189</v>
+        <v>0.53334457056905615</v>
       </c>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.15">
@@ -49455,7 +49335,7 @@
       </c>
       <c r="P67">
         <f t="shared" si="0"/>
-        <v>0.42376094511592816</v>
+        <v>0.53149135531243141</v>
       </c>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.15">
@@ -49464,7 +49344,7 @@
       </c>
       <c r="P68">
         <f t="shared" si="0"/>
-        <v>0.41621251804183312</v>
+        <v>0.52967266102777222</v>
       </c>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.15">
@@ -49473,7 +49353,7 @@
       </c>
       <c r="P69">
         <f t="shared" si="0"/>
-        <v>0.40887406830073897</v>
+        <v>0.52788729328833084</v>
       </c>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.15">
@@ -49482,7 +49362,7 @@
       </c>
       <c r="P70">
         <f t="shared" si="0"/>
-        <v>0.40173752604953161</v>
+        <v>0.52613411770402885</v>
       </c>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.15">
@@ -49491,7 +49371,7 @@
       </c>
       <c r="P71">
         <f t="shared" si="0"/>
-        <v>0.39479521751587082</v>
+        <v>0.52441205598873186</v>
       </c>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.15">
@@ -49500,7 +49380,7 @@
       </c>
       <c r="P72">
         <f t="shared" si="0"/>
-        <v>0.38803984149007165</v>
+        <v>0.52272008234334122</v>
       </c>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.15">
@@ -49509,7 +49389,7 @@
       </c>
       <c r="P73">
         <f t="shared" si="0"/>
-        <v>0.38146444743612673</v>
+        <v>0.52105722012480993</v>
       </c>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.15">
@@ -49518,7 +49398,7 @@
       </c>
       <c r="P74">
         <f t="shared" si="0"/>
-        <v>0.37506241509689697</v>
+        <v>0.51942253877442923</v>
       </c>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.15">
@@ -49526,8 +49406,8 @@
         <v>66</v>
       </c>
       <c r="P75">
-        <f t="shared" ref="P75:P119" si="1">EXP(0.625*LN(O75)-0.206*(LN(O75))^2)</f>
-        <v>0.36882743547894636</v>
+        <f t="shared" ref="P75:P119" si="1">EXP(-0.111*LN(O75)-0.011*(LN(O75))^2)</f>
+        <v>0.51781515098158526</v>
       </c>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.15">
@@ -49536,7 +49416,7 @@
       </c>
       <c r="P76">
         <f t="shared" si="1"/>
-        <v>0.36275349311201455</v>
+        <v>0.51623421006169212</v>
       </c>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.15">
@@ -49545,7 +49425,7 @@
       </c>
       <c r="P77">
         <f t="shared" si="1"/>
-        <v>0.35683484948685545</v>
+        <v>0.5146789075292213</v>
       </c>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.15">
@@ -49554,7 +49434,7 @@
       </c>
       <c r="P78">
         <f t="shared" si="1"/>
-        <v>0.35106602758309358</v>
+        <v>0.51314847084869308</v>
       </c>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.15">
@@ -49563,7 +49443,7 @@
       </c>
       <c r="P79">
         <f t="shared" si="1"/>
-        <v>0.34544179740602382</v>
+        <v>0.51164216134823082</v>
       </c>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.15">
@@ -49572,7 +49452,7 @@
       </c>
       <c r="P80">
         <f t="shared" si="1"/>
-        <v>0.33995716245789986</v>
+        <v>0.51015927228180358</v>
       </c>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.15">
@@ -49581,7 +49461,7 @@
       </c>
       <c r="P81">
         <f t="shared" si="1"/>
-        <v>0.3346073470752986</v>
+        <v>0.50869912702764686</v>
       </c>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.15">
@@ -49590,7 +49470,7 @@
       </c>
       <c r="P82">
         <f t="shared" si="1"/>
-        <v>0.32938778456968332</v>
+        <v>0.5072610774115589</v>
       </c>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.15">
@@ -49599,7 +49479,7 @@
       </c>
       <c r="P83">
         <f t="shared" si="1"/>
-        <v>0.32429410611331821</v>
+        <v>0.505844502144849</v>
       </c>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.15">
@@ -49608,7 +49488,7 @@
       </c>
       <c r="P84">
         <f t="shared" si="1"/>
-        <v>0.31932213031730999</v>
+        <v>0.50444880536767533</v>
       </c>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.15">
@@ -49617,7 +49497,7 @@
       </c>
       <c r="P85">
         <f t="shared" si="1"/>
-        <v>0.3144678534527463</v>
+        <v>0.503073415289371</v>
       </c>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.15">
@@ -49626,7 +49506,7 @@
       </c>
       <c r="P86">
         <f t="shared" si="1"/>
-        <v>0.30972744026977911</v>
+        <v>0.50171778291812841</v>
       </c>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.15">
@@ -49635,7 +49515,7 @@
       </c>
       <c r="P87">
         <f t="shared" si="1"/>
-        <v>0.30509721537299461</v>
+        <v>0.50038138087309736</v>
       </c>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.15">
@@ -49644,7 +49524,7 @@
       </c>
       <c r="P88">
         <f t="shared" si="1"/>
-        <v>0.30057365511466161</v>
+        <v>0.49906370227258051</v>
       </c>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.15">
@@ -49653,7 +49533,7 @@
       </c>
       <c r="P89">
         <f t="shared" si="1"/>
-        <v>0.29615337997039182</v>
+        <v>0.49776425969255994</v>
       </c>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.15">
@@ -49662,7 +49542,7 @@
       </c>
       <c r="P90">
         <f t="shared" si="1"/>
-        <v>0.29183314736445243</v>
+        <v>0.49648258419029467</v>
       </c>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.15">
@@ -49671,7 +49551,7 @@
       </c>
       <c r="P91">
         <f t="shared" si="1"/>
-        <v>0.28760984491445407</v>
+        <v>0.49521822438818219</v>
       </c>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.15">
@@ -49680,7 +49560,7 @@
       </c>
       <c r="P92">
         <f t="shared" si="1"/>
-        <v>0.28348048406741422</v>
+        <v>0.49397074561348342</v>
       </c>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.15">
@@ -49689,7 +49569,7 @@
       </c>
       <c r="P93">
         <f t="shared" si="1"/>
-        <v>0.27944219410128113</v>
+        <v>0.49273972908988189</v>
       </c>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.15">
@@ -49698,7 +49578,7 @@
       </c>
       <c r="P94">
         <f t="shared" si="1"/>
-        <v>0.27549221646791994</v>
+        <v>0.49152477117718213</v>
       </c>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.15">
@@ -49707,7 +49587,7 @@
       </c>
       <c r="P95">
         <f t="shared" si="1"/>
-        <v>0.27162789945533827</v>
+        <v>0.49032548265575671</v>
       </c>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.15">
@@ -49716,7 +49596,7 @@
       </c>
       <c r="P96">
         <f t="shared" si="1"/>
-        <v>0.26784669314852061</v>
+        <v>0.48914148805262314</v>
       </c>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.15">
@@ -49725,7 +49605,7 @@
       </c>
       <c r="P97">
         <f t="shared" si="1"/>
-        <v>0.26414614466976855</v>
+        <v>0.48797242500628601</v>
       </c>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.15">
@@ -49734,7 +49614,7 @@
       </c>
       <c r="P98">
         <f t="shared" si="1"/>
-        <v>0.26052389368077844</v>
+        <v>0.48681794366770448</v>
       </c>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.15">
@@ -49743,7 +49623,7 @@
       </c>
       <c r="P99">
         <f t="shared" si="1"/>
-        <v>0.25697766812998213</v>
+        <v>0.48567770613495154</v>
       </c>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.15">
@@ -49752,7 +49632,7 @@
       </c>
       <c r="P100">
         <f t="shared" si="1"/>
-        <v>0.25350528022982383</v>
+        <v>0.4845513859193249</v>
       </c>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.15">
@@ -49761,7 +49641,7 @@
       </c>
       <c r="P101">
         <f t="shared" si="1"/>
-        <v>0.25010462264972105</v>
+        <v>0.48343866744083358</v>
       </c>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.15">
@@ -49770,7 +49650,7 @@
       </c>
       <c r="P102">
         <f t="shared" si="1"/>
-        <v>0.24677366491146174</v>
+        <v>0.48233924555114949</v>
       </c>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.15">
@@ -49779,7 +49659,7 @@
       </c>
       <c r="P103">
         <f t="shared" si="1"/>
-        <v>0.24351044997468327</v>
+        <v>0.48125282508225159</v>
       </c>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.15">
@@ -49788,7 +49668,7 @@
       </c>
       <c r="P104">
         <f t="shared" si="1"/>
-        <v>0.24031309100094819</v>
+        <v>0.48017912041912447</v>
       </c>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.15">
@@ -49797,7 +49677,7 @@
       </c>
       <c r="P105">
         <f t="shared" si="1"/>
-        <v>0.23717976828569154</v>
+        <v>0.47911785509499233</v>
       </c>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.15">
@@ -49806,7 +49686,7 @@
       </c>
       <c r="P106">
         <f t="shared" si="1"/>
-        <v>0.23410872634805241</v>
+        <v>0.47806876140768123</v>
       </c>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.15">
@@ -49815,7 +49695,7 @@
       </c>
       <c r="P107">
         <f t="shared" si="1"/>
-        <v>0.23109827116926382</v>
+        <v>0.47703158005580226</v>
       </c>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.15">
@@ -49824,7 +49704,7 @@
       </c>
       <c r="P108">
         <f t="shared" si="1"/>
-        <v>0.22814676757089572</v>
+        <v>0.47600605979354188</v>
       </c>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.15">
@@ -49833,7 +49713,7 @@
       </c>
       <c r="P109">
         <f t="shared" si="1"/>
-        <v>0.22525263672481832</v>
+        <v>0.47499195710293346</v>
       </c>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.15">
@@ -49842,7 +49722,7 @@
       </c>
       <c r="P110">
         <f t="shared" si="1"/>
-        <v>0.22241435378729466</v>
+        <v>0.47398903588255931</v>
       </c>
     </row>
     <row r="111" spans="15:16" x14ac:dyDescent="0.15">
@@ -49851,7 +49731,7 @@
       </c>
       <c r="P111">
         <f t="shared" si="1"/>
-        <v>0.21963044565008386</v>
+        <v>0.47299706715170742</v>
       </c>
     </row>
     <row r="112" spans="15:16" x14ac:dyDescent="0.15">
@@ -49860,7 +49740,7 @@
       </c>
       <c r="P112">
         <f t="shared" si="1"/>
-        <v>0.21689948880191826</v>
+        <v>0.47201582876907355</v>
       </c>
     </row>
     <row r="113" spans="15:16" x14ac:dyDescent="0.15">
@@ -49869,7 +49749,7 @@
       </c>
       <c r="P113">
         <f t="shared" si="1"/>
-        <v>0.21422010729412905</v>
+        <v>0.47104510516516179</v>
       </c>
     </row>
     <row r="114" spans="15:16" x14ac:dyDescent="0.15">
@@ -49878,7 +49758,7 @@
       </c>
       <c r="P114">
         <f t="shared" si="1"/>
-        <v>0.21159097080458905</v>
+        <v>0.47008468708759066</v>
       </c>
     </row>
     <row r="115" spans="15:16" x14ac:dyDescent="0.15">
@@ -49887,7 +49767,7 @@
       </c>
       <c r="P115">
         <f t="shared" si="1"/>
-        <v>0.20901079279451917</v>
+        <v>0.46913437135856967</v>
       </c>
     </row>
     <row r="116" spans="15:16" x14ac:dyDescent="0.15">
@@ -49896,7 +49776,7 @@
       </c>
       <c r="P116">
         <f t="shared" si="1"/>
-        <v>0.20647832875303412</v>
+        <v>0.46819396064385421</v>
       </c>
     </row>
     <row r="117" spans="15:16" x14ac:dyDescent="0.15">
@@ -49905,7 +49785,7 @@
       </c>
       <c r="P117">
         <f t="shared" si="1"/>
-        <v>0.20399237452463079</v>
+        <v>0.46726326323253609</v>
       </c>
     </row>
     <row r="118" spans="15:16" x14ac:dyDescent="0.15">
@@ -49914,7 +49794,7 @@
       </c>
       <c r="P118">
         <f t="shared" si="1"/>
-        <v>0.20155176471511591</v>
+        <v>0.46634209282706784</v>
       </c>
     </row>
     <row r="119" spans="15:16" x14ac:dyDescent="0.15">
@@ -49923,7 +49803,7 @@
       </c>
       <c r="P119">
         <f t="shared" si="1"/>
-        <v>0.19915537117173715</v>
+        <v>0.46543026834295348</v>
       </c>
     </row>
   </sheetData>

--- a/回归结果/double小麦.xlsx
+++ b/回归结果/double小麦.xlsx
@@ -14,7 +14,8 @@
     <sheet name="各要素回归" sheetId="4" r:id="rId5"/>
     <sheet name="回归结果" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="11" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="14" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">回归结果!$A$21:$G$55</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="210">
   <si>
     <t>yield</t>
   </si>
@@ -1052,6 +1053,54 @@
       <t>lnyield</t>
     </r>
   </si>
+  <si>
+    <t>Std. Err.</t>
+  </si>
+  <si>
+    <t>-0.001</t>
+  </si>
+  <si>
+    <t>0.063</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>-0.006</t>
+  </si>
+  <si>
+    <t>-0.009</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>-0.002</t>
+  </si>
+  <si>
+    <t>-0.013</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-0.005</t>
+  </si>
+  <si>
+    <t>-0.004</t>
+  </si>
+  <si>
+    <t>0.009*</t>
+  </si>
 </sst>
 </file>
 
@@ -1468,16 +1517,31 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1490,21 +1554,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1548,6 +1597,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7974,52 +8024,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>106</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="63">
+      <c r="H2" s="64">
         <v>1</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="63">
+      <c r="L2" s="64">
         <v>2</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="63">
+      <c r="P2" s="64">
         <v>3</v>
       </c>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -9229,23 +9279,23 @@
       <c r="R23"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="64" t="s">
         <v>108</v>
       </c>
       <c r="B25" s="2"/>
@@ -10159,23 +10209,23 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A48" s="64" t="s">
+      <c r="A48" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="64"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="64" t="s">
         <v>108</v>
       </c>
       <c r="B49" s="2"/>
@@ -13038,23 +13088,23 @@
       </c>
     </row>
     <row r="72" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A72" s="64" t="s">
+      <c r="A72" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="64"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="64"/>
-      <c r="K72" s="64"/>
-      <c r="L72" s="64"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="63"/>
+      <c r="L72" s="63"/>
     </row>
     <row r="73" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A73" s="63" t="s">
+      <c r="A73" s="64" t="s">
         <v>108</v>
       </c>
       <c r="B73" s="2"/>
@@ -15841,23 +15891,23 @@
       </c>
     </row>
     <row r="95" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A95" s="64" t="s">
+      <c r="A95" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="B95" s="64"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="64"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="64"/>
-      <c r="J95" s="64"/>
-      <c r="K95" s="64"/>
-      <c r="L95" s="64"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="63"/>
+      <c r="I95" s="63"/>
+      <c r="J95" s="63"/>
+      <c r="K95" s="63"/>
+      <c r="L95" s="63"/>
     </row>
     <row r="96" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A96" s="63" t="s">
+      <c r="A96" s="64" t="s">
         <v>108</v>
       </c>
       <c r="B96" s="2"/>
@@ -18720,23 +18770,23 @@
       </c>
     </row>
     <row r="118" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A118" s="64" t="s">
+      <c r="A118" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="B118" s="64"/>
-      <c r="C118" s="64"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="64"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="64"/>
-      <c r="H118" s="64"/>
-      <c r="I118" s="64"/>
-      <c r="J118" s="64"/>
-      <c r="K118" s="64"/>
-      <c r="L118" s="64"/>
+      <c r="B118" s="63"/>
+      <c r="C118" s="63"/>
+      <c r="D118" s="63"/>
+      <c r="E118" s="63"/>
+      <c r="F118" s="63"/>
+      <c r="G118" s="63"/>
+      <c r="H118" s="63"/>
+      <c r="I118" s="63"/>
+      <c r="J118" s="63"/>
+      <c r="K118" s="63"/>
+      <c r="L118" s="63"/>
     </row>
     <row r="119" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A119" s="63" t="s">
+      <c r="A119" s="64" t="s">
         <v>108</v>
       </c>
       <c r="B119" s="2"/>
@@ -22703,22 +22753,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="A72:L72"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="A95:L95"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A118:L118"/>
     <mergeCell ref="A119:A120"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="A72:L72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29555,7 +29605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A21:W110"/>
   <sheetViews>
-    <sheetView topLeftCell="C73" workbookViewId="0">
+    <sheetView topLeftCell="C85" workbookViewId="0">
       <selection activeCell="R99" sqref="R99:W99"/>
     </sheetView>
   </sheetViews>
@@ -29567,26 +29617,26 @@
   </cols>
   <sheetData>
     <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.15">
@@ -29611,15 +29661,15 @@
       <c r="G23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="75" t="s">
+      <c r="K23" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
     </row>
     <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
@@ -29644,15 +29694,15 @@
       <c r="G24" s="3">
         <v>7.7743000000000007E-2</v>
       </c>
-      <c r="K24" s="73" t="s">
+      <c r="K24" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
     </row>
     <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
@@ -31071,18 +31121,18 @@
       <c r="Q66" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="R66" s="72" t="s">
+      <c r="R66" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="S66" s="72"/>
-      <c r="T66" s="72" t="s">
+      <c r="S66" s="70"/>
+      <c r="T66" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="U66" s="72"/>
-      <c r="V66" s="72" t="s">
+      <c r="U66" s="70"/>
+      <c r="V66" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="W66" s="72"/>
+      <c r="W66" s="70"/>
     </row>
     <row r="67" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="Q67" s="42" t="s">
@@ -31192,15 +31242,15 @@
       </c>
     </row>
     <row r="71" spans="1:23" ht="15" x14ac:dyDescent="0.15">
-      <c r="A71" s="75" t="s">
+      <c r="A71" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
       <c r="Q71" s="42" t="s">
         <v>51</v>
       </c>
@@ -31227,15 +31277,15 @@
       </c>
     </row>
     <row r="72" spans="1:23" ht="15" x14ac:dyDescent="0.15">
-      <c r="A72" s="73" t="s">
+      <c r="A72" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="B72" s="73"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
       <c r="Q72" s="42" t="s">
         <v>45</v>
       </c>
@@ -32554,10 +32604,10 @@
       <c r="Q97" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="R97" s="70" t="s">
+      <c r="R97" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="S97" s="70"/>
+      <c r="S97" s="75"/>
       <c r="T97" s="71" t="s">
         <v>136</v>
       </c>
@@ -32644,14 +32694,14 @@
       <c r="Q99" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="R99" s="67" t="s">
+      <c r="R99" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="S99" s="67"/>
-      <c r="T99" s="67"/>
-      <c r="U99" s="67"/>
-      <c r="V99" s="67"/>
-      <c r="W99" s="67"/>
+      <c r="S99" s="72"/>
+      <c r="T99" s="72"/>
+      <c r="U99" s="72"/>
+      <c r="V99" s="72"/>
+      <c r="W99" s="72"/>
     </row>
     <row r="100" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
@@ -32683,18 +32733,18 @@
       <c r="Q100" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="R100" s="68">
+      <c r="R100" s="73">
         <v>0.41510000000000002</v>
       </c>
-      <c r="S100" s="68"/>
-      <c r="T100" s="69" t="s">
+      <c r="S100" s="73"/>
+      <c r="T100" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="U100" s="69"/>
-      <c r="V100" s="69" t="s">
+      <c r="U100" s="74"/>
+      <c r="V100" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="W100" s="69"/>
+      <c r="W100" s="74"/>
     </row>
     <row r="101" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
@@ -32893,18 +32943,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="A71:G71"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="T96:U96"/>
-    <mergeCell ref="V96:W96"/>
     <mergeCell ref="R99:W99"/>
     <mergeCell ref="R100:S100"/>
     <mergeCell ref="T100:U100"/>
@@ -32915,6 +32953,18 @@
     <mergeCell ref="R98:S98"/>
     <mergeCell ref="T98:U98"/>
     <mergeCell ref="V98:W98"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="T96:U96"/>
+    <mergeCell ref="V96:W96"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A71:G71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40229,10 +40279,10 @@
       <c r="A33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="71" t="s">
         <v>136</v>
       </c>
@@ -40503,12 +40553,12 @@
       <c r="A35" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
       <c r="H35" s="10"/>
       <c r="J35" s="3" t="s">
         <v>83</v>
@@ -40635,8 +40685,8 @@
       <c r="A36" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
@@ -48277,12 +48327,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B33:C33"/>
@@ -48291,6 +48335,12 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48301,9 +48351,541 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="37">
+        <v>9.9556000000000002E-3</v>
+      </c>
+      <c r="D5" s="37">
+        <v>-3.43</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="37">
+        <v>1.4741999999999999E-3</v>
+      </c>
+      <c r="D6" s="37">
+        <v>-0.65</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="37">
+        <v>6.9167000000000006E-2</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.91</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="37">
+        <v>0.15753400000000001</v>
+      </c>
+      <c r="D8" s="37">
+        <v>1.69</v>
+      </c>
+      <c r="E8" s="37">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="37">
+        <v>3.06325E-2</v>
+      </c>
+      <c r="D9" s="37">
+        <v>2.21</v>
+      </c>
+      <c r="E9" s="37">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="37">
+        <v>0.1421635</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="37">
+        <v>4.1779E-3</v>
+      </c>
+      <c r="D11" s="37">
+        <v>-1.35</v>
+      </c>
+      <c r="E11" s="37">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="37">
+        <v>1.5188399999999999E-2</v>
+      </c>
+      <c r="D12" s="37">
+        <v>-0.61</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="37">
+        <v>5.953E-4</v>
+      </c>
+      <c r="D13" s="37">
+        <v>2.34</v>
+      </c>
+      <c r="E13" s="37">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="37">
+        <v>1.36951E-2</v>
+      </c>
+      <c r="D14" s="37">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E14" s="37">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="37">
+        <v>1.2427000000000001E-2</v>
+      </c>
+      <c r="D15" s="37">
+        <v>0.39</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="37">
+        <v>2.0912000000000001E-3</v>
+      </c>
+      <c r="D16" s="37">
+        <v>-0.99</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="37">
+        <v>8.9175000000000001E-3</v>
+      </c>
+      <c r="D17" s="37">
+        <v>-1.48</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="37">
+        <v>5.1678999999999996E-3</v>
+      </c>
+      <c r="D18" s="37">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="E18" s="37">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="37">
+        <v>1.6157000000000001E-2</v>
+      </c>
+      <c r="D19" s="37">
+        <v>-1.25</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="37">
+        <v>2.8162E-3</v>
+      </c>
+      <c r="D20" s="37">
+        <v>0.43</v>
+      </c>
+      <c r="E20" s="37">
+        <v>0.66400000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="37">
+        <v>7.1659000000000002E-3</v>
+      </c>
+      <c r="D21" s="37">
+        <v>-1.31</v>
+      </c>
+      <c r="E21" s="37">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="37">
+        <v>2.5310000000000003E-4</v>
+      </c>
+      <c r="D22" s="37">
+        <v>0.63</v>
+      </c>
+      <c r="E22" s="37">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="37">
+        <v>1.0399000000000001E-3</v>
+      </c>
+      <c r="D23" s="37">
+        <v>0.18</v>
+      </c>
+      <c r="E23" s="37">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="37">
+        <v>9.1423000000000008E-3</v>
+      </c>
+      <c r="D24" s="37">
+        <v>-0.51</v>
+      </c>
+      <c r="E24" s="37">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="37">
+        <v>3.5003E-3</v>
+      </c>
+      <c r="D25" s="37">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E25" s="37">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="37">
+        <v>5.5129999999999997E-3</v>
+      </c>
+      <c r="D26" s="37">
+        <v>1.67</v>
+      </c>
+      <c r="E26" s="37">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="37">
+        <v>4.0584999999999996E-3</v>
+      </c>
+      <c r="D27" s="37">
+        <v>-1.25</v>
+      </c>
+      <c r="E27" s="37">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="37">
+        <v>4.2186000000000003E-3</v>
+      </c>
+      <c r="D28" s="37">
+        <v>1.59</v>
+      </c>
+      <c r="E28" s="37">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="37">
+        <v>4.9338000000000003E-3</v>
+      </c>
+      <c r="D29" s="37">
+        <v>1.05</v>
+      </c>
+      <c r="E29" s="37">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="37">
+        <v>7.7907999999999996E-3</v>
+      </c>
+      <c r="D30" s="37">
+        <v>0.59</v>
+      </c>
+      <c r="E30" s="37">
+        <v>0.55600000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="37">
+        <v>1.2815E-2</v>
+      </c>
+      <c r="D31" s="37">
+        <v>-0.17</v>
+      </c>
+      <c r="E31" s="37">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="37">
+        <v>9.0189999999999997E-4</v>
+      </c>
+      <c r="D32" s="37">
+        <v>0.88</v>
+      </c>
+      <c r="E32" s="37">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="37">
+        <v>0.54537519999999995</v>
+      </c>
+      <c r="D33" s="37">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="E33" s="37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10:P119"/>
     </sheetView>
   </sheetViews>
